--- a/output_of_small_data.xlsx
+++ b/output_of_small_data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="104">
   <si>
     <t>Course</t>
   </si>
@@ -27,205 +27,307 @@
     <t>DSO-621</t>
   </si>
   <si>
+    <t>ACC306B</t>
+  </si>
+  <si>
+    <t>DSO-522</t>
+  </si>
+  <si>
+    <t>BRI202A</t>
+  </si>
+  <si>
+    <t>DSO-528</t>
+  </si>
+  <si>
+    <t>JFF417</t>
+  </si>
+  <si>
+    <t>DSO-401</t>
+  </si>
+  <si>
+    <t>JFF331</t>
+  </si>
+  <si>
+    <t>BRI5</t>
+  </si>
+  <si>
+    <t>DSO-549</t>
+  </si>
+  <si>
+    <t>ACC303</t>
+  </si>
+  <si>
+    <t>DSO-586</t>
+  </si>
+  <si>
+    <t>DSO-433</t>
+  </si>
+  <si>
+    <t>DSO-483</t>
+  </si>
+  <si>
+    <t>ACC236</t>
+  </si>
+  <si>
+    <t>DSO-516</t>
+  </si>
+  <si>
+    <t>DSO-530</t>
+  </si>
+  <si>
+    <t>BRI202</t>
+  </si>
+  <si>
+    <t>DSO-536</t>
+  </si>
+  <si>
+    <t>DSO-582</t>
+  </si>
+  <si>
+    <t>DSO-583</t>
+  </si>
+  <si>
+    <t>JFF322</t>
+  </si>
+  <si>
+    <t>DSO-599</t>
+  </si>
+  <si>
+    <t>JKP102</t>
+  </si>
+  <si>
+    <t>ACC201</t>
+  </si>
+  <si>
+    <t>DSO-510</t>
+  </si>
+  <si>
+    <t>DSO-545</t>
+  </si>
+  <si>
+    <t>JFF233</t>
+  </si>
+  <si>
+    <t>DSO-424</t>
+  </si>
+  <si>
+    <t>JFF241</t>
+  </si>
+  <si>
+    <t>HOH2</t>
+  </si>
+  <si>
+    <t>DSO-547</t>
+  </si>
+  <si>
+    <t>JFF236</t>
+  </si>
+  <si>
+    <t>DSO-551</t>
+  </si>
+  <si>
+    <t>HOH706</t>
+  </si>
+  <si>
+    <t>DSO-570</t>
+  </si>
+  <si>
+    <t>JFF414</t>
+  </si>
+  <si>
+    <t>HOH1</t>
+  </si>
+  <si>
+    <t>DSO-581</t>
+  </si>
+  <si>
+    <t>ACC205</t>
+  </si>
+  <si>
+    <t>DSO-462</t>
+  </si>
+  <si>
+    <t>ACC310</t>
+  </si>
+  <si>
+    <t>DSO-580</t>
+  </si>
+  <si>
+    <t>JFF313</t>
+  </si>
+  <si>
+    <t>Room</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>DSO-528-16272:42</t>
+  </si>
+  <si>
+    <t>DSO-462-16236:31</t>
+  </si>
+  <si>
+    <t>DSO-401-16217:31</t>
+  </si>
+  <si>
+    <t>DSO-483-16240:35</t>
+  </si>
+  <si>
+    <t>DSO-401-16215:35</t>
+  </si>
+  <si>
+    <t>DSO-549-16285:39</t>
+  </si>
+  <si>
+    <t>DSO-510-16304:40</t>
+  </si>
+  <si>
+    <t>DSO-599-16318:10</t>
+  </si>
+  <si>
+    <t>DSO-621-16321:5</t>
+  </si>
+  <si>
+    <t>DSO-530-16275:47</t>
+  </si>
+  <si>
+    <t>ACC312</t>
+  </si>
+  <si>
+    <t>DSO-530-16276:37</t>
+  </si>
+  <si>
+    <t>DSO-536-16308:26</t>
+  </si>
+  <si>
+    <t>DSO-582-16289:25</t>
+  </si>
+  <si>
+    <t>DSO-433-16227:27</t>
+  </si>
+  <si>
+    <t>DSO-516-16305:20</t>
+  </si>
+  <si>
+    <t>DSO-581-16288:29</t>
+  </si>
+  <si>
+    <t>DSO-522-16270:30</t>
+  </si>
+  <si>
+    <t>DSO-401-16214:37</t>
+  </si>
+  <si>
+    <t>DSO-516-16306:36</t>
+  </si>
+  <si>
+    <t>BRI8</t>
+  </si>
+  <si>
+    <t>HOH EDI</t>
+  </si>
+  <si>
+    <t>DSO-570-16301:55</t>
+  </si>
+  <si>
+    <t>DSO-510-16302:55</t>
+  </si>
+  <si>
     <t>HOH506</t>
   </si>
   <si>
-    <t>DSO-522</t>
-  </si>
-  <si>
-    <t>BRI202A</t>
-  </si>
-  <si>
-    <t>DSO-528</t>
-  </si>
-  <si>
-    <t>BRI8</t>
-  </si>
-  <si>
-    <t>DSO-401</t>
-  </si>
-  <si>
-    <t>BRI202</t>
-  </si>
-  <si>
-    <t>DSO-549</t>
+    <t>DSO-551-16281:11</t>
   </si>
   <si>
     <t>JFF LL101</t>
   </si>
   <si>
-    <t>DSO-586</t>
-  </si>
-  <si>
-    <t>DSO-433</t>
-  </si>
-  <si>
-    <t>DSO-483</t>
-  </si>
-  <si>
-    <t>DSO-516</t>
-  </si>
-  <si>
-    <t>DSO-530</t>
-  </si>
-  <si>
-    <t>DSO-536</t>
-  </si>
-  <si>
-    <t>DSO-582</t>
-  </si>
-  <si>
-    <t>DSO-583</t>
-  </si>
-  <si>
     <t>JFF LL102</t>
   </si>
   <si>
-    <t>DSO-599</t>
-  </si>
-  <si>
-    <t>HOH1</t>
-  </si>
-  <si>
     <t>JFF LL103</t>
   </si>
   <si>
-    <t>DSO-510</t>
-  </si>
-  <si>
-    <t>DSO-545</t>
-  </si>
-  <si>
-    <t>HOH2</t>
-  </si>
-  <si>
-    <t>DSO-424</t>
-  </si>
-  <si>
-    <t>DSO-547</t>
-  </si>
-  <si>
-    <t>DSO-551</t>
-  </si>
-  <si>
-    <t>DSO-570</t>
-  </si>
-  <si>
-    <t>DSO-581</t>
-  </si>
-  <si>
-    <t>DSO-462</t>
-  </si>
-  <si>
-    <t>DSO-580</t>
-  </si>
-  <si>
-    <t>Room</t>
-  </si>
-  <si>
-    <t>Size</t>
-  </si>
-  <si>
-    <t>DSO-516-16306:36</t>
-  </si>
-  <si>
-    <t>DSO-530-16276:37</t>
-  </si>
-  <si>
-    <t>DSO-483-16240:35</t>
-  </si>
-  <si>
-    <t>DSO-401-16214:37</t>
-  </si>
-  <si>
-    <t>DSO-401-16215:35</t>
-  </si>
-  <si>
-    <t>DSO-536-16308:26</t>
-  </si>
-  <si>
-    <t>DSO-516-16305:20</t>
-  </si>
-  <si>
-    <t>DSO-433-16227:27</t>
-  </si>
-  <si>
-    <t>DSO-582-16289:25</t>
-  </si>
-  <si>
-    <t>DSO-581-16288:29</t>
-  </si>
-  <si>
-    <t>DSO-522-16270:30</t>
+    <t>JFF LL105</t>
+  </si>
+  <si>
+    <t>JFF LL125</t>
+  </si>
+  <si>
+    <t>DSO-545-16278:53</t>
+  </si>
+  <si>
+    <t>DSO-580-16286:51</t>
+  </si>
+  <si>
+    <t>DSO-547-16280:52</t>
+  </si>
+  <si>
+    <t>JFF239</t>
+  </si>
+  <si>
+    <t>JFF240</t>
+  </si>
+  <si>
+    <t>DSO-424-16218:43</t>
+  </si>
+  <si>
+    <t>JFF312</t>
+  </si>
+  <si>
+    <t>DSO-599-16319:16</t>
+  </si>
+  <si>
+    <t>JFF316</t>
+  </si>
+  <si>
+    <t>DSO-583-16292:42</t>
+  </si>
+  <si>
+    <t>JFF327</t>
+  </si>
+  <si>
+    <t>JFF328</t>
   </si>
   <si>
     <t>DSO-401-16216:27</t>
   </si>
   <si>
+    <t>DSO-570-16298:51</t>
+  </si>
+  <si>
+    <t>JFF416</t>
+  </si>
+  <si>
     <t>DSO-586-16330:32</t>
   </si>
   <si>
-    <t>DSO-599-16319:16</t>
-  </si>
-  <si>
-    <t>DSO-462-16236:31</t>
-  </si>
-  <si>
-    <t>DSO-401-16217:31</t>
-  </si>
-  <si>
     <t>DSO-528-16274:26</t>
   </si>
   <si>
     <t>DSO-599-16317:45</t>
   </si>
   <si>
-    <t>DSO-547-16280:52</t>
-  </si>
-  <si>
-    <t>DSO-510-16302:55</t>
-  </si>
-  <si>
-    <t>DSO-570-16301:55</t>
-  </si>
-  <si>
-    <t>DSO-570-16298:51</t>
-  </si>
-  <si>
-    <t>DSO-545-16278:53</t>
-  </si>
-  <si>
-    <t>DSO-580-16286:51</t>
-  </si>
-  <si>
-    <t>DSO-530-16275:47</t>
-  </si>
-  <si>
-    <t>DSO-551-16281:11</t>
-  </si>
-  <si>
-    <t>DSO-599-16318:10</t>
-  </si>
-  <si>
-    <t>DSO-621-16321:5</t>
-  </si>
-  <si>
-    <t>HOH706</t>
-  </si>
-  <si>
-    <t>DSO-549-16285:39</t>
-  </si>
-  <si>
-    <t>DSO-424-16218:43</t>
-  </si>
-  <si>
-    <t>DSO-510-16304:40</t>
-  </si>
-  <si>
-    <t>DSO-583-16292:42</t>
-  </si>
-  <si>
-    <t>DSO-528-16272:42</t>
+    <t>JKP104</t>
+  </si>
+  <si>
+    <t>JKP110</t>
+  </si>
+  <si>
+    <t>JKP112</t>
+  </si>
+  <si>
+    <t>JKP202</t>
+  </si>
+  <si>
+    <t>JKP204</t>
+  </si>
+  <si>
+    <t>JKP210</t>
+  </si>
+  <si>
+    <t>JKP212</t>
   </si>
 </sst>
 </file>
@@ -1052,31 +1154,31 @@
       <c r="AQ3" t="s"/>
       <c r="AR3" t="s"/>
       <c r="AS3" t="s"/>
-      <c r="AT3" t="s">
+      <c r="AT3" t="s"/>
+      <c r="AU3" t="s"/>
+      <c r="AV3" t="s"/>
+      <c r="AW3" t="s"/>
+      <c r="AX3" t="s"/>
+      <c r="AY3" t="s"/>
+      <c r="AZ3" t="s"/>
+      <c r="BA3" t="s">
         <v>5</v>
       </c>
-      <c r="AU3" t="s">
+      <c r="BB3" t="s">
         <v>5</v>
       </c>
-      <c r="AV3" t="s">
+      <c r="BC3" t="s">
         <v>5</v>
       </c>
-      <c r="AW3" t="s">
+      <c r="BD3" t="s">
         <v>5</v>
       </c>
-      <c r="AX3" t="s">
+      <c r="BE3" t="s">
         <v>5</v>
       </c>
-      <c r="AY3" t="s">
+      <c r="BF3" t="s">
         <v>5</v>
       </c>
-      <c r="AZ3" t="s"/>
-      <c r="BA3" t="s"/>
-      <c r="BB3" t="s"/>
-      <c r="BC3" t="s"/>
-      <c r="BD3" t="s"/>
-      <c r="BE3" t="s"/>
-      <c r="BF3" t="s"/>
       <c r="BG3" t="s"/>
       <c r="BH3" t="s"/>
       <c r="BI3" t="s"/>
@@ -1169,28 +1271,28 @@
       <c r="AP4" t="s"/>
       <c r="AQ4" t="s"/>
       <c r="AR4" t="s"/>
-      <c r="AS4" t="s"/>
-      <c r="AT4" t="s"/>
-      <c r="AU4" t="s"/>
-      <c r="AV4" t="s"/>
+      <c r="AS4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>7</v>
+      </c>
       <c r="AW4" t="s">
         <v>7</v>
       </c>
       <c r="AX4" t="s">
         <v>7</v>
       </c>
-      <c r="AY4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>7</v>
-      </c>
-      <c r="BA4" t="s">
-        <v>7</v>
-      </c>
-      <c r="BB4" t="s">
-        <v>7</v>
-      </c>
+      <c r="AY4" t="s"/>
+      <c r="AZ4" t="s"/>
+      <c r="BA4" t="s"/>
+      <c r="BB4" t="s"/>
       <c r="BC4" t="s"/>
       <c r="BD4" t="s"/>
       <c r="BE4" t="s"/>
@@ -1247,16 +1349,16 @@
       </c>
       <c r="C5" t="s"/>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H5" t="s"/>
       <c r="I5" t="s"/>
@@ -1357,28 +1459,28 @@
       <c r="B6" s="1" t="n">
         <v>16214</v>
       </c>
-      <c r="C6" t="s"/>
-      <c r="D6" t="s"/>
-      <c r="E6" t="s"/>
-      <c r="F6" t="s"/>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
       <c r="G6" t="s"/>
       <c r="H6" t="s"/>
       <c r="I6" t="s"/>
       <c r="J6" t="s"/>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
-      <c r="M6" t="s">
-        <v>9</v>
-      </c>
-      <c r="N6" t="s">
-        <v>9</v>
-      </c>
-      <c r="O6" t="s">
-        <v>9</v>
-      </c>
-      <c r="P6" t="s">
-        <v>9</v>
-      </c>
+      <c r="M6" t="s"/>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
+      <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
       <c r="S6" t="s"/>
@@ -1466,31 +1568,31 @@
     </row>
     <row r="7" spans="1:100">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>16285</v>
       </c>
       <c r="C7" t="s"/>
-      <c r="D7" t="s"/>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" t="s">
-        <v>11</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="J7" t="s"/>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
       <c r="M7" t="s"/>
@@ -1584,34 +1686,34 @@
     </row>
     <row r="8" spans="1:100">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>16330</v>
       </c>
-      <c r="C8" t="s"/>
-      <c r="D8" t="s"/>
-      <c r="E8" t="s"/>
-      <c r="F8" t="s"/>
-      <c r="G8" t="s"/>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" t="s">
+        <v>7</v>
+      </c>
       <c r="H8" t="s">
         <v>7</v>
       </c>
-      <c r="I8" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8" t="s">
-        <v>7</v>
-      </c>
-      <c r="L8" t="s">
-        <v>7</v>
-      </c>
-      <c r="M8" t="s">
-        <v>7</v>
-      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s"/>
+      <c r="K8" t="s"/>
+      <c r="L8" t="s"/>
+      <c r="M8" t="s"/>
       <c r="N8" t="s"/>
       <c r="O8" t="s"/>
       <c r="P8" t="s"/>
@@ -1702,7 +1804,7 @@
     </row>
     <row r="9" spans="1:100">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>16227</v>
@@ -1713,9 +1815,7 @@
       <c r="F9" t="s"/>
       <c r="G9" t="s"/>
       <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>5</v>
-      </c>
+      <c r="I9" t="s"/>
       <c r="J9" t="s">
         <v>5</v>
       </c>
@@ -1725,7 +1825,9 @@
       <c r="L9" t="s">
         <v>5</v>
       </c>
-      <c r="M9" t="s"/>
+      <c r="M9" t="s">
+        <v>5</v>
+      </c>
       <c r="N9" t="s"/>
       <c r="O9" t="s"/>
       <c r="P9" t="s"/>
@@ -1749,9 +1851,7 @@
       <c r="AH9" t="s"/>
       <c r="AI9" t="s"/>
       <c r="AJ9" t="s"/>
-      <c r="AK9" t="s">
-        <v>5</v>
-      </c>
+      <c r="AK9" t="s"/>
       <c r="AL9" t="s">
         <v>5</v>
       </c>
@@ -1761,7 +1861,9 @@
       <c r="AN9" t="s">
         <v>5</v>
       </c>
-      <c r="AO9" t="s"/>
+      <c r="AO9" t="s">
+        <v>5</v>
+      </c>
       <c r="AP9" t="s"/>
       <c r="AQ9" t="s"/>
       <c r="AR9" t="s"/>
@@ -1824,7 +1926,7 @@
     </row>
     <row r="10" spans="1:100">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>16240</v>
@@ -1836,16 +1938,16 @@
       <c r="G10" t="s"/>
       <c r="H10" t="s"/>
       <c r="I10" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="J10" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="K10" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L10" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="M10" t="s"/>
       <c r="N10" t="s"/>
@@ -1872,16 +1974,16 @@
       <c r="AI10" t="s"/>
       <c r="AJ10" t="s"/>
       <c r="AK10" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AL10" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AM10" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AN10" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AO10" t="s"/>
       <c r="AP10" t="s"/>
@@ -1946,7 +2048,7 @@
     </row>
     <row r="11" spans="1:100">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>16305</v>
@@ -1954,23 +2056,23 @@
       <c r="C11" t="s"/>
       <c r="D11" t="s"/>
       <c r="E11" t="s"/>
-      <c r="F11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" t="s">
-        <v>5</v>
-      </c>
+      <c r="F11" t="s"/>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s"/>
       <c r="I11" t="s"/>
       <c r="J11" t="s"/>
       <c r="K11" t="s"/>
       <c r="L11" t="s"/>
       <c r="M11" t="s"/>
-      <c r="N11" t="s"/>
-      <c r="O11" t="s"/>
-      <c r="P11" t="s"/>
+      <c r="N11" t="s">
+        <v>5</v>
+      </c>
+      <c r="O11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P11" t="s">
+        <v>5</v>
+      </c>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
       <c r="S11" t="s"/>
@@ -1988,23 +2090,23 @@
       <c r="AE11" t="s"/>
       <c r="AF11" t="s"/>
       <c r="AG11" t="s"/>
-      <c r="AH11" t="s">
-        <v>5</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>5</v>
-      </c>
+      <c r="AH11" t="s"/>
+      <c r="AI11" t="s"/>
+      <c r="AJ11" t="s"/>
       <c r="AK11" t="s"/>
       <c r="AL11" t="s"/>
       <c r="AM11" t="s"/>
       <c r="AN11" t="s"/>
       <c r="AO11" t="s"/>
-      <c r="AP11" t="s"/>
-      <c r="AQ11" t="s"/>
-      <c r="AR11" t="s"/>
+      <c r="AP11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>5</v>
+      </c>
       <c r="AS11" t="s"/>
       <c r="AT11" t="s"/>
       <c r="AU11" t="s"/>
@@ -2067,15 +2169,9 @@
       <c r="B12" s="1" t="n">
         <v>16306</v>
       </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
+      <c r="C12" t="s"/>
+      <c r="D12" t="s"/>
+      <c r="E12" t="s"/>
       <c r="F12" t="s"/>
       <c r="G12" t="s"/>
       <c r="H12" t="s"/>
@@ -2084,9 +2180,15 @@
       <c r="K12" t="s"/>
       <c r="L12" t="s"/>
       <c r="M12" t="s"/>
-      <c r="N12" t="s"/>
-      <c r="O12" t="s"/>
-      <c r="P12" t="s"/>
+      <c r="N12" t="s">
+        <v>10</v>
+      </c>
+      <c r="O12" t="s">
+        <v>10</v>
+      </c>
+      <c r="P12" t="s">
+        <v>10</v>
+      </c>
       <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
       <c r="S12" t="s"/>
@@ -2101,15 +2203,9 @@
       <c r="AB12" t="s"/>
       <c r="AC12" t="s"/>
       <c r="AD12" t="s"/>
-      <c r="AE12" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>9</v>
-      </c>
+      <c r="AE12" t="s"/>
+      <c r="AF12" t="s"/>
+      <c r="AG12" t="s"/>
       <c r="AH12" t="s"/>
       <c r="AI12" t="s"/>
       <c r="AJ12" t="s"/>
@@ -2118,9 +2214,15 @@
       <c r="AM12" t="s"/>
       <c r="AN12" t="s"/>
       <c r="AO12" t="s"/>
-      <c r="AP12" t="s"/>
-      <c r="AQ12" t="s"/>
-      <c r="AR12" t="s"/>
+      <c r="AP12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>10</v>
+      </c>
       <c r="AS12" t="s"/>
       <c r="AT12" t="s"/>
       <c r="AU12" t="s"/>
@@ -2180,7 +2282,7 @@
     </row>
     <row r="13" spans="1:100">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>16276</v>
@@ -2188,21 +2290,21 @@
       <c r="C13" t="s"/>
       <c r="D13" t="s"/>
       <c r="E13" t="s"/>
-      <c r="F13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" t="s">
-        <v>9</v>
-      </c>
+      <c r="F13" t="s"/>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s"/>
       <c r="I13" t="s"/>
       <c r="J13" t="s"/>
       <c r="K13" t="s"/>
-      <c r="L13" t="s"/>
-      <c r="M13" t="s"/>
-      <c r="N13" t="s"/>
+      <c r="L13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" t="s">
+        <v>19</v>
+      </c>
+      <c r="N13" t="s">
+        <v>19</v>
+      </c>
       <c r="O13" t="s"/>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2222,21 +2324,21 @@
       <c r="AE13" t="s"/>
       <c r="AF13" t="s"/>
       <c r="AG13" t="s"/>
-      <c r="AH13" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>9</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>9</v>
-      </c>
+      <c r="AH13" t="s"/>
+      <c r="AI13" t="s"/>
+      <c r="AJ13" t="s"/>
       <c r="AK13" t="s"/>
       <c r="AL13" t="s"/>
       <c r="AM13" t="s"/>
-      <c r="AN13" t="s"/>
-      <c r="AO13" t="s"/>
-      <c r="AP13" t="s"/>
+      <c r="AN13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>19</v>
+      </c>
       <c r="AQ13" t="s"/>
       <c r="AR13" t="s"/>
       <c r="AS13" t="s"/>
@@ -2298,7 +2400,7 @@
     </row>
     <row r="14" spans="1:100">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>16308</v>
@@ -2416,7 +2518,7 @@
     </row>
     <row r="15" spans="1:100">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>16289</v>
@@ -2425,22 +2527,22 @@
       <c r="D15" t="s"/>
       <c r="E15" t="s"/>
       <c r="F15" t="s"/>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s"/>
+      <c r="G15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" t="s">
+        <v>5</v>
+      </c>
       <c r="J15" t="s"/>
       <c r="K15" t="s"/>
       <c r="L15" t="s"/>
       <c r="M15" t="s"/>
-      <c r="N15" t="s">
-        <v>5</v>
-      </c>
-      <c r="O15" t="s">
-        <v>5</v>
-      </c>
-      <c r="P15" t="s">
-        <v>5</v>
-      </c>
+      <c r="N15" t="s"/>
+      <c r="O15" t="s"/>
+      <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
       <c r="S15" t="s"/>
@@ -2459,22 +2561,22 @@
       <c r="AF15" t="s"/>
       <c r="AG15" t="s"/>
       <c r="AH15" t="s"/>
-      <c r="AI15" t="s"/>
-      <c r="AJ15" t="s"/>
-      <c r="AK15" t="s"/>
+      <c r="AI15" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>5</v>
+      </c>
       <c r="AL15" t="s"/>
       <c r="AM15" t="s"/>
       <c r="AN15" t="s"/>
       <c r="AO15" t="s"/>
-      <c r="AP15" t="s">
-        <v>5</v>
-      </c>
-      <c r="AQ15" t="s">
-        <v>5</v>
-      </c>
-      <c r="AR15" t="s">
-        <v>5</v>
-      </c>
+      <c r="AP15" t="s"/>
+      <c r="AQ15" t="s"/>
+      <c r="AR15" t="s"/>
       <c r="AS15" t="s"/>
       <c r="AT15" t="s"/>
       <c r="AU15" t="s"/>
@@ -2534,7 +2636,7 @@
     </row>
     <row r="16" spans="1:100">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>16292</v>
@@ -2542,23 +2644,23 @@
       <c r="C16" t="s"/>
       <c r="D16" t="s"/>
       <c r="E16" t="s"/>
-      <c r="F16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" t="s">
-        <v>20</v>
-      </c>
+      <c r="F16" t="s"/>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s"/>
       <c r="I16" t="s"/>
       <c r="J16" t="s"/>
       <c r="K16" t="s"/>
       <c r="L16" t="s"/>
       <c r="M16" t="s"/>
-      <c r="N16" t="s"/>
-      <c r="O16" t="s"/>
-      <c r="P16" t="s"/>
+      <c r="N16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O16" t="s">
+        <v>23</v>
+      </c>
+      <c r="P16" t="s">
+        <v>23</v>
+      </c>
       <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
       <c r="S16" t="s"/>
@@ -2576,23 +2678,23 @@
       <c r="AE16" t="s"/>
       <c r="AF16" t="s"/>
       <c r="AG16" t="s"/>
-      <c r="AH16" t="s">
-        <v>20</v>
-      </c>
-      <c r="AI16" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ16" t="s">
-        <v>20</v>
-      </c>
+      <c r="AH16" t="s"/>
+      <c r="AI16" t="s"/>
+      <c r="AJ16" t="s"/>
       <c r="AK16" t="s"/>
       <c r="AL16" t="s"/>
       <c r="AM16" t="s"/>
       <c r="AN16" t="s"/>
       <c r="AO16" t="s"/>
-      <c r="AP16" t="s"/>
-      <c r="AQ16" t="s"/>
-      <c r="AR16" t="s"/>
+      <c r="AP16" t="s">
+        <v>23</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>23</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>23</v>
+      </c>
       <c r="AS16" t="s"/>
       <c r="AT16" t="s"/>
       <c r="AU16" t="s"/>
@@ -2652,7 +2754,7 @@
     </row>
     <row r="17" spans="1:100">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>16317</v>
@@ -2660,13 +2762,13 @@
       <c r="C17" t="s"/>
       <c r="D17" t="s"/>
       <c r="E17" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F17" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G17" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H17" t="s"/>
       <c r="I17" t="s"/>
@@ -2694,13 +2796,13 @@
       <c r="AE17" t="s"/>
       <c r="AF17" t="s"/>
       <c r="AG17" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AH17" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AI17" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AJ17" t="s"/>
       <c r="AK17" t="s"/>
@@ -2845,32 +2947,32 @@
       <c r="BR18" t="s"/>
       <c r="BS18" t="s"/>
       <c r="BT18" t="s"/>
-      <c r="BU18" t="s">
-        <v>23</v>
-      </c>
-      <c r="BV18" t="s">
-        <v>23</v>
-      </c>
-      <c r="BW18" t="s">
-        <v>23</v>
-      </c>
-      <c r="BX18" t="s">
-        <v>23</v>
-      </c>
-      <c r="BY18" t="s">
-        <v>23</v>
-      </c>
-      <c r="BZ18" t="s">
-        <v>23</v>
-      </c>
+      <c r="BU18" t="s"/>
+      <c r="BV18" t="s"/>
+      <c r="BW18" t="s"/>
+      <c r="BX18" t="s"/>
+      <c r="BY18" t="s"/>
+      <c r="BZ18" t="s"/>
       <c r="CA18" t="s"/>
       <c r="CB18" t="s"/>
-      <c r="CC18" t="s"/>
-      <c r="CD18" t="s"/>
-      <c r="CE18" t="s"/>
-      <c r="CF18" t="s"/>
-      <c r="CG18" t="s"/>
-      <c r="CH18" t="s"/>
+      <c r="CC18" t="s">
+        <v>26</v>
+      </c>
+      <c r="CD18" t="s">
+        <v>26</v>
+      </c>
+      <c r="CE18" t="s">
+        <v>26</v>
+      </c>
+      <c r="CF18" t="s">
+        <v>26</v>
+      </c>
+      <c r="CG18" t="s">
+        <v>26</v>
+      </c>
+      <c r="CH18" t="s">
+        <v>26</v>
+      </c>
       <c r="CI18" t="s"/>
       <c r="CJ18" t="s"/>
       <c r="CK18" t="s"/>
@@ -2888,7 +2990,7 @@
     </row>
     <row r="19" spans="1:100">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>16304</v>
@@ -2911,26 +3013,26 @@
       <c r="R19" t="s"/>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="s"/>
-      <c r="V19" t="s"/>
+      <c r="U19" t="s">
+        <v>12</v>
+      </c>
+      <c r="V19" t="s">
+        <v>12</v>
+      </c>
       <c r="W19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z19" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>11</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="AA19" t="s"/>
+      <c r="AB19" t="s"/>
       <c r="AC19" t="s"/>
       <c r="AD19" t="s"/>
       <c r="AE19" t="s"/>
@@ -3006,7 +3108,7 @@
     </row>
     <row r="20" spans="1:100">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>16278</v>
@@ -3032,25 +3134,25 @@
       <c r="U20" t="s"/>
       <c r="V20" t="s"/>
       <c r="W20" t="s"/>
-      <c r="X20" t="s">
-        <v>26</v>
-      </c>
+      <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z20" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA20" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB20" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC20" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD20" t="s"/>
+        <v>29</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>29</v>
+      </c>
       <c r="AE20" t="s"/>
       <c r="AF20" t="s"/>
       <c r="AG20" t="s"/>
@@ -3124,7 +3226,7 @@
     </row>
     <row r="21" spans="1:100">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>16218</v>
@@ -3144,19 +3246,19 @@
       <c r="O21" t="s"/>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
-      <c r="R21" t="s"/>
+      <c r="R21" t="s">
+        <v>31</v>
+      </c>
       <c r="S21" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="T21" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="U21" t="s">
-        <v>11</v>
-      </c>
-      <c r="V21" t="s">
-        <v>11</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="V21" t="s"/>
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s"/>
@@ -3180,19 +3282,19 @@
       <c r="AQ21" t="s"/>
       <c r="AR21" t="s"/>
       <c r="AS21" t="s"/>
-      <c r="AT21" t="s"/>
+      <c r="AT21" t="s">
+        <v>31</v>
+      </c>
       <c r="AU21" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="AV21" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="AW21" t="s">
-        <v>11</v>
-      </c>
-      <c r="AX21" t="s">
-        <v>11</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="AX21" t="s"/>
       <c r="AY21" t="s"/>
       <c r="AZ21" t="s"/>
       <c r="BA21" t="s"/>
@@ -3246,7 +3348,7 @@
     </row>
     <row r="22" spans="1:100">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>16302</v>
@@ -3271,17 +3373,17 @@
       <c r="T22" t="s"/>
       <c r="U22" t="s"/>
       <c r="V22" t="s"/>
-      <c r="W22" t="s">
-        <v>22</v>
-      </c>
-      <c r="X22" t="s">
-        <v>22</v>
-      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z22" t="s"/>
-      <c r="AA22" t="s"/>
+        <v>32</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>32</v>
+      </c>
       <c r="AB22" t="s"/>
       <c r="AC22" t="s"/>
       <c r="AD22" t="s"/>
@@ -3305,17 +3407,17 @@
       <c r="AV22" t="s"/>
       <c r="AW22" t="s"/>
       <c r="AX22" t="s"/>
-      <c r="AY22" t="s">
-        <v>22</v>
-      </c>
-      <c r="AZ22" t="s">
-        <v>22</v>
-      </c>
+      <c r="AY22" t="s"/>
+      <c r="AZ22" t="s"/>
       <c r="BA22" t="s">
-        <v>22</v>
-      </c>
-      <c r="BB22" t="s"/>
-      <c r="BC22" t="s"/>
+        <v>32</v>
+      </c>
+      <c r="BB22" t="s">
+        <v>32</v>
+      </c>
+      <c r="BC22" t="s">
+        <v>32</v>
+      </c>
       <c r="BD22" t="s"/>
       <c r="BE22" t="s"/>
       <c r="BF22" t="s"/>
@@ -3364,7 +3466,7 @@
     </row>
     <row r="23" spans="1:100">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>16280</v>
@@ -3383,19 +3485,19 @@
       <c r="N23" t="s"/>
       <c r="O23" t="s"/>
       <c r="P23" t="s"/>
-      <c r="Q23" t="s">
-        <v>22</v>
-      </c>
-      <c r="R23" t="s">
-        <v>22</v>
-      </c>
-      <c r="S23" t="s">
-        <v>22</v>
-      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="s"/>
-      <c r="V23" t="s"/>
-      <c r="W23" t="s"/>
+      <c r="U23" t="s">
+        <v>34</v>
+      </c>
+      <c r="V23" t="s">
+        <v>34</v>
+      </c>
+      <c r="W23" t="s">
+        <v>34</v>
+      </c>
       <c r="X23" t="s"/>
       <c r="Y23" t="s"/>
       <c r="Z23" t="s"/>
@@ -3417,19 +3519,19 @@
       <c r="AP23" t="s"/>
       <c r="AQ23" t="s"/>
       <c r="AR23" t="s"/>
-      <c r="AS23" t="s">
-        <v>22</v>
-      </c>
-      <c r="AT23" t="s">
-        <v>22</v>
-      </c>
-      <c r="AU23" t="s">
-        <v>22</v>
-      </c>
+      <c r="AS23" t="s"/>
+      <c r="AT23" t="s"/>
+      <c r="AU23" t="s"/>
       <c r="AV23" t="s"/>
-      <c r="AW23" t="s"/>
-      <c r="AX23" t="s"/>
-      <c r="AY23" t="s"/>
+      <c r="AW23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AX23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AY23" t="s">
+        <v>34</v>
+      </c>
       <c r="AZ23" t="s"/>
       <c r="BA23" t="s"/>
       <c r="BB23" t="s"/>
@@ -3482,7 +3584,7 @@
     </row>
     <row r="24" spans="1:100">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>16281</v>
@@ -3501,30 +3603,30 @@
       <c r="N24" t="s"/>
       <c r="O24" t="s"/>
       <c r="P24" t="s"/>
-      <c r="Q24" t="s"/>
-      <c r="R24" t="s"/>
-      <c r="S24" t="s"/>
-      <c r="T24" t="s"/>
-      <c r="U24" t="s"/>
+      <c r="Q24" t="s">
+        <v>36</v>
+      </c>
+      <c r="R24" t="s">
+        <v>36</v>
+      </c>
+      <c r="S24" t="s">
+        <v>36</v>
+      </c>
+      <c r="T24" t="s">
+        <v>36</v>
+      </c>
+      <c r="U24" t="s">
+        <v>36</v>
+      </c>
       <c r="V24" t="s"/>
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s"/>
-      <c r="Z24" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>3</v>
-      </c>
+      <c r="Z24" t="s"/>
+      <c r="AA24" t="s"/>
+      <c r="AB24" t="s"/>
+      <c r="AC24" t="s"/>
+      <c r="AD24" t="s"/>
       <c r="AE24" t="s"/>
       <c r="AF24" t="s"/>
       <c r="AG24" t="s"/>
@@ -3539,30 +3641,30 @@
       <c r="AP24" t="s"/>
       <c r="AQ24" t="s"/>
       <c r="AR24" t="s"/>
-      <c r="AS24" t="s"/>
-      <c r="AT24" t="s"/>
-      <c r="AU24" t="s"/>
-      <c r="AV24" t="s"/>
-      <c r="AW24" t="s"/>
+      <c r="AS24" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT24" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU24" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV24" t="s">
+        <v>36</v>
+      </c>
+      <c r="AW24" t="s">
+        <v>36</v>
+      </c>
       <c r="AX24" t="s"/>
       <c r="AY24" t="s"/>
       <c r="AZ24" t="s"/>
       <c r="BA24" t="s"/>
-      <c r="BB24" t="s">
-        <v>3</v>
-      </c>
-      <c r="BC24" t="s">
-        <v>3</v>
-      </c>
-      <c r="BD24" t="s">
-        <v>3</v>
-      </c>
-      <c r="BE24" t="s">
-        <v>3</v>
-      </c>
-      <c r="BF24" t="s">
-        <v>3</v>
-      </c>
+      <c r="BB24" t="s"/>
+      <c r="BC24" t="s"/>
+      <c r="BD24" t="s"/>
+      <c r="BE24" t="s"/>
+      <c r="BF24" t="s"/>
       <c r="BG24" t="s"/>
       <c r="BH24" t="s"/>
       <c r="BI24" t="s"/>
@@ -3608,7 +3710,7 @@
     </row>
     <row r="25" spans="1:100">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>16298</v>
@@ -3628,20 +3730,20 @@
       <c r="O25" t="s"/>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
-      <c r="R25" t="s">
-        <v>26</v>
-      </c>
-      <c r="S25" t="s">
-        <v>26</v>
-      </c>
-      <c r="T25" t="s">
-        <v>26</v>
-      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
       <c r="U25" t="s"/>
       <c r="V25" t="s"/>
-      <c r="W25" t="s"/>
-      <c r="X25" t="s"/>
-      <c r="Y25" t="s"/>
+      <c r="W25" t="s">
+        <v>38</v>
+      </c>
+      <c r="X25" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>38</v>
+      </c>
       <c r="Z25" t="s"/>
       <c r="AA25" t="s"/>
       <c r="AB25" t="s"/>
@@ -3662,20 +3764,20 @@
       <c r="AQ25" t="s"/>
       <c r="AR25" t="s"/>
       <c r="AS25" t="s"/>
-      <c r="AT25" t="s">
-        <v>26</v>
-      </c>
-      <c r="AU25" t="s">
-        <v>26</v>
-      </c>
-      <c r="AV25" t="s">
-        <v>26</v>
-      </c>
+      <c r="AT25" t="s"/>
+      <c r="AU25" t="s"/>
+      <c r="AV25" t="s"/>
       <c r="AW25" t="s"/>
       <c r="AX25" t="s"/>
-      <c r="AY25" t="s"/>
-      <c r="AZ25" t="s"/>
-      <c r="BA25" t="s"/>
+      <c r="AY25" t="s">
+        <v>38</v>
+      </c>
+      <c r="AZ25" t="s">
+        <v>38</v>
+      </c>
+      <c r="BA25" t="s">
+        <v>38</v>
+      </c>
       <c r="BB25" t="s"/>
       <c r="BC25" t="s"/>
       <c r="BD25" t="s"/>
@@ -3752,16 +3854,16 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s"/>
-      <c r="Z26" t="s"/>
+      <c r="Z26" t="s">
+        <v>39</v>
+      </c>
       <c r="AA26" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="AB26" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC26" t="s">
-        <v>22</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="AC26" t="s"/>
       <c r="AD26" t="s"/>
       <c r="AE26" t="s"/>
       <c r="AF26" t="s"/>
@@ -3786,16 +3888,16 @@
       <c r="AY26" t="s"/>
       <c r="AZ26" t="s"/>
       <c r="BA26" t="s"/>
-      <c r="BB26" t="s"/>
+      <c r="BB26" t="s">
+        <v>39</v>
+      </c>
       <c r="BC26" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="BD26" t="s">
-        <v>22</v>
-      </c>
-      <c r="BE26" t="s">
-        <v>22</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="BE26" t="s"/>
       <c r="BF26" t="s"/>
       <c r="BG26" t="s"/>
       <c r="BH26" t="s"/>
@@ -3842,7 +3944,7 @@
     </row>
     <row r="27" spans="1:100">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>16288</v>
@@ -3861,9 +3963,15 @@
       <c r="N27" t="s"/>
       <c r="O27" t="s"/>
       <c r="P27" t="s"/>
-      <c r="Q27" t="s"/>
-      <c r="R27" t="s"/>
-      <c r="S27" t="s"/>
+      <c r="Q27" t="s">
+        <v>5</v>
+      </c>
+      <c r="R27" t="s">
+        <v>5</v>
+      </c>
+      <c r="S27" t="s">
+        <v>5</v>
+      </c>
       <c r="T27" t="s"/>
       <c r="U27" t="s"/>
       <c r="V27" t="s"/>
@@ -3871,16 +3979,10 @@
       <c r="X27" t="s"/>
       <c r="Y27" t="s"/>
       <c r="Z27" t="s"/>
-      <c r="AA27" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB27" t="s">
-        <v>5</v>
-      </c>
+      <c r="AA27" t="s"/>
+      <c r="AB27" t="s"/>
       <c r="AC27" t="s"/>
-      <c r="AD27" t="s">
-        <v>5</v>
-      </c>
+      <c r="AD27" t="s"/>
       <c r="AE27" t="s"/>
       <c r="AF27" t="s"/>
       <c r="AG27" t="s"/>
@@ -3895,9 +3997,15 @@
       <c r="AP27" t="s"/>
       <c r="AQ27" t="s"/>
       <c r="AR27" t="s"/>
-      <c r="AS27" t="s"/>
-      <c r="AT27" t="s"/>
-      <c r="AU27" t="s"/>
+      <c r="AS27" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT27" t="s">
+        <v>5</v>
+      </c>
+      <c r="AU27" t="s">
+        <v>5</v>
+      </c>
       <c r="AV27" t="s"/>
       <c r="AW27" t="s"/>
       <c r="AX27" t="s"/>
@@ -3905,16 +4013,10 @@
       <c r="AZ27" t="s"/>
       <c r="BA27" t="s"/>
       <c r="BB27" t="s"/>
-      <c r="BC27" t="s">
-        <v>5</v>
-      </c>
-      <c r="BD27" t="s">
-        <v>5</v>
-      </c>
+      <c r="BC27" t="s"/>
+      <c r="BD27" t="s"/>
       <c r="BE27" t="s"/>
-      <c r="BF27" t="s">
-        <v>5</v>
-      </c>
+      <c r="BF27" t="s"/>
       <c r="BG27" t="s"/>
       <c r="BH27" t="s"/>
       <c r="BI27" t="s"/>
@@ -4004,16 +4106,16 @@
       <c r="AM28" t="s"/>
       <c r="AN28" t="s"/>
       <c r="AO28" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="AP28" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="AQ28" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="AR28" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="AS28" t="s"/>
       <c r="AT28" t="s"/>
@@ -4116,16 +4218,16 @@
       <c r="AM29" t="s"/>
       <c r="AN29" t="s"/>
       <c r="AO29" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AP29" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AQ29" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AR29" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AS29" t="s"/>
       <c r="AT29" t="s"/>
@@ -4186,7 +4288,7 @@
     </row>
     <row r="30" spans="1:100">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B30" s="1" t="n">
         <v>16236</v>
@@ -4226,16 +4328,16 @@
       <c r="AI30" t="s"/>
       <c r="AJ30" t="s"/>
       <c r="AK30" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="AL30" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="AM30" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="AN30" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="AO30" t="s"/>
       <c r="AP30" t="s"/>
@@ -4300,7 +4402,7 @@
     </row>
     <row r="31" spans="1:100">
       <c r="A31" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B31" s="1" t="n">
         <v>16275</v>
@@ -4339,26 +4441,26 @@
       <c r="AH31" t="s"/>
       <c r="AI31" t="s"/>
       <c r="AJ31" t="s"/>
-      <c r="AK31" t="s"/>
+      <c r="AK31" t="s">
+        <v>43</v>
+      </c>
       <c r="AL31" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="AM31" t="s">
-        <v>26</v>
-      </c>
-      <c r="AN31" t="s"/>
+        <v>43</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>43</v>
+      </c>
       <c r="AO31" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="AP31" t="s">
-        <v>26</v>
-      </c>
-      <c r="AQ31" t="s">
-        <v>26</v>
-      </c>
-      <c r="AR31" t="s">
-        <v>26</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="AQ31" t="s"/>
+      <c r="AR31" t="s"/>
       <c r="AS31" t="s"/>
       <c r="AT31" t="s"/>
       <c r="AU31" t="s"/>
@@ -4418,7 +4520,7 @@
     </row>
     <row r="32" spans="1:100">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>16286</v>
@@ -4452,25 +4554,25 @@
       <c r="AC32" t="s"/>
       <c r="AD32" t="s"/>
       <c r="AE32" t="s"/>
-      <c r="AF32" t="s">
-        <v>26</v>
-      </c>
+      <c r="AF32" t="s"/>
       <c r="AG32" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AH32" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI32" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ32" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AK32" t="s">
-        <v>26</v>
-      </c>
-      <c r="AL32" t="s"/>
+        <v>29</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>29</v>
+      </c>
       <c r="AM32" t="s"/>
       <c r="AN32" t="s"/>
       <c r="AO32" t="s"/>
@@ -4536,7 +4638,7 @@
     </row>
     <row r="33" spans="1:100">
       <c r="A33" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>16319</v>
@@ -4569,29 +4671,29 @@
       <c r="AB33" t="s"/>
       <c r="AC33" t="s"/>
       <c r="AD33" t="s"/>
-      <c r="AE33" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF33" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG33" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH33" t="s">
-        <v>7</v>
-      </c>
-      <c r="AI33" t="s">
-        <v>7</v>
-      </c>
+      <c r="AE33" t="s"/>
+      <c r="AF33" t="s"/>
+      <c r="AG33" t="s"/>
+      <c r="AH33" t="s"/>
+      <c r="AI33" t="s"/>
       <c r="AJ33" t="s">
-        <v>7</v>
-      </c>
-      <c r="AK33" t="s"/>
-      <c r="AL33" t="s"/>
-      <c r="AM33" t="s"/>
-      <c r="AN33" t="s"/>
-      <c r="AO33" t="s"/>
+        <v>45</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO33" t="s">
+        <v>45</v>
+      </c>
       <c r="AP33" t="s"/>
       <c r="AQ33" t="s"/>
       <c r="AR33" t="s"/>
@@ -4691,9 +4793,7 @@
       <c r="AH34" t="s"/>
       <c r="AI34" t="s"/>
       <c r="AJ34" t="s"/>
-      <c r="AK34" t="s">
-        <v>3</v>
-      </c>
+      <c r="AK34" t="s"/>
       <c r="AL34" t="s">
         <v>3</v>
       </c>
@@ -4709,7 +4809,9 @@
       <c r="AP34" t="s">
         <v>3</v>
       </c>
-      <c r="AQ34" t="s"/>
+      <c r="AQ34" t="s">
+        <v>3</v>
+      </c>
       <c r="AR34" t="s"/>
       <c r="AS34" t="s"/>
       <c r="AT34" t="s"/>
@@ -4786,7 +4888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CV11"/>
+  <dimension ref="A1:CV45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4796,10 +4898,10 @@
   <sheetData>
     <row r="1" spans="1:100">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="n">
         <v>0</v>
@@ -5098,53 +5200,25 @@
     </row>
     <row r="2" spans="1:100">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="C2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M2" t="s">
-        <v>39</v>
-      </c>
-      <c r="N2" t="s">
-        <v>39</v>
-      </c>
-      <c r="O2" t="s">
-        <v>39</v>
-      </c>
-      <c r="P2" t="s">
-        <v>39</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C2" t="s"/>
+      <c r="D2" t="s"/>
+      <c r="E2" t="s"/>
+      <c r="F2" t="s"/>
+      <c r="G2" t="s"/>
+      <c r="H2" t="s"/>
+      <c r="I2" t="s"/>
+      <c r="J2" t="s"/>
+      <c r="K2" t="s"/>
+      <c r="L2" t="s"/>
+      <c r="M2" t="s"/>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
+      <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
@@ -5159,48 +5233,20 @@
       <c r="AB2" t="s"/>
       <c r="AC2" t="s"/>
       <c r="AD2" t="s"/>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>40</v>
-      </c>
+      <c r="AE2" t="s"/>
+      <c r="AF2" t="s"/>
+      <c r="AG2" t="s"/>
+      <c r="AH2" t="s"/>
+      <c r="AI2" t="s"/>
+      <c r="AJ2" t="s"/>
+      <c r="AK2" t="s"/>
+      <c r="AL2" t="s"/>
+      <c r="AM2" t="s"/>
+      <c r="AN2" t="s"/>
+      <c r="AO2" t="s"/>
+      <c r="AP2" t="s"/>
+      <c r="AQ2" t="s"/>
+      <c r="AR2" t="s"/>
       <c r="AS2" t="s"/>
       <c r="AT2" t="s"/>
       <c r="AU2" t="s"/>
@@ -5237,12 +5283,24 @@
       <c r="BZ2" t="s"/>
       <c r="CA2" t="s"/>
       <c r="CB2" t="s"/>
-      <c r="CC2" t="s"/>
-      <c r="CD2" t="s"/>
-      <c r="CE2" t="s"/>
-      <c r="CF2" t="s"/>
-      <c r="CG2" t="s"/>
-      <c r="CH2" t="s"/>
+      <c r="CC2" t="s">
+        <v>48</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>48</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>48</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>48</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>48</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>48</v>
+      </c>
       <c r="CI2" t="s"/>
       <c r="CJ2" t="s"/>
       <c r="CK2" t="s"/>
@@ -5260,51 +5318,25 @@
     </row>
     <row r="3" spans="1:100">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="C3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J3" t="s">
-        <v>43</v>
-      </c>
-      <c r="K3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L3" t="s">
-        <v>43</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C3" t="s"/>
+      <c r="D3" t="s"/>
+      <c r="E3" t="s"/>
+      <c r="F3" t="s"/>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s"/>
+      <c r="I3" t="s"/>
+      <c r="J3" t="s"/>
+      <c r="K3" t="s"/>
+      <c r="L3" t="s"/>
       <c r="M3" t="s"/>
-      <c r="N3" t="s">
-        <v>44</v>
-      </c>
-      <c r="O3" t="s">
-        <v>44</v>
-      </c>
-      <c r="P3" t="s">
-        <v>44</v>
-      </c>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
+      <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
       <c r="S3" t="s"/>
@@ -5315,88 +5347,54 @@
       <c r="X3" t="s"/>
       <c r="Y3" t="s"/>
       <c r="Z3" t="s"/>
-      <c r="AA3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>45</v>
-      </c>
+      <c r="AA3" t="s"/>
+      <c r="AB3" t="s"/>
       <c r="AC3" t="s"/>
-      <c r="AD3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>42</v>
-      </c>
+      <c r="AD3" t="s"/>
+      <c r="AE3" t="s"/>
+      <c r="AF3" t="s"/>
+      <c r="AG3" t="s"/>
+      <c r="AH3" t="s"/>
+      <c r="AI3" t="s"/>
+      <c r="AJ3" t="s"/>
       <c r="AK3" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="AL3" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="AM3" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="AN3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AO3" t="s"/>
+        <v>49</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>50</v>
+      </c>
       <c r="AP3" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AQ3" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AR3" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AS3" t="s"/>
-      <c r="AT3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>46</v>
-      </c>
+      <c r="AT3" t="s"/>
+      <c r="AU3" t="s"/>
+      <c r="AV3" t="s"/>
+      <c r="AW3" t="s"/>
+      <c r="AX3" t="s"/>
+      <c r="AY3" t="s"/>
       <c r="AZ3" t="s"/>
       <c r="BA3" t="s"/>
       <c r="BB3" t="s"/>
-      <c r="BC3" t="s">
-        <v>45</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>45</v>
-      </c>
+      <c r="BC3" t="s"/>
+      <c r="BD3" t="s"/>
       <c r="BE3" t="s"/>
-      <c r="BF3" t="s">
-        <v>45</v>
-      </c>
+      <c r="BF3" t="s"/>
       <c r="BG3" t="s"/>
       <c r="BH3" t="s"/>
       <c r="BI3" t="s"/>
@@ -5442,42 +5440,30 @@
     </row>
     <row r="4" spans="1:100">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s"/>
-      <c r="D4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
+      <c r="D4" t="s"/>
+      <c r="E4" t="s"/>
+      <c r="F4" t="s"/>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s"/>
       <c r="I4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L4" t="s">
-        <v>48</v>
-      </c>
-      <c r="M4" t="s">
-        <v>48</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="M4" t="s"/>
       <c r="N4" t="s"/>
       <c r="O4" t="s"/>
       <c r="P4" t="s"/>
@@ -5495,70 +5481,46 @@
       <c r="AB4" t="s"/>
       <c r="AC4" t="s"/>
       <c r="AD4" t="s"/>
-      <c r="AE4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>49</v>
-      </c>
+      <c r="AE4" t="s"/>
+      <c r="AF4" t="s"/>
+      <c r="AG4" t="s"/>
+      <c r="AH4" t="s"/>
+      <c r="AI4" t="s"/>
+      <c r="AJ4" t="s"/>
       <c r="AK4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AL4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AM4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AN4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AO4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AP4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AQ4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AR4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AS4" t="s"/>
       <c r="AT4" t="s"/>
       <c r="AU4" t="s"/>
       <c r="AV4" t="s"/>
-      <c r="AW4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AY4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>52</v>
-      </c>
-      <c r="BA4" t="s">
-        <v>52</v>
-      </c>
-      <c r="BB4" t="s">
-        <v>52</v>
-      </c>
+      <c r="AW4" t="s"/>
+      <c r="AX4" t="s"/>
+      <c r="AY4" t="s"/>
+      <c r="AZ4" t="s"/>
+      <c r="BA4" t="s"/>
+      <c r="BB4" t="s"/>
       <c r="BC4" t="s"/>
       <c r="BD4" t="s"/>
       <c r="BE4" t="s"/>
@@ -5608,13 +5570,15 @@
     </row>
     <row r="5" spans="1:100">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s"/>
-      <c r="D5" t="s"/>
+      <c r="D5" t="s">
+        <v>53</v>
+      </c>
       <c r="E5" t="s">
         <v>53</v>
       </c>
@@ -5624,8 +5588,12 @@
       <c r="G5" t="s">
         <v>53</v>
       </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s"/>
+      <c r="H5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" t="s">
+        <v>53</v>
+      </c>
       <c r="J5" t="s"/>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -5633,49 +5601,37 @@
       <c r="N5" t="s"/>
       <c r="O5" t="s"/>
       <c r="P5" t="s"/>
-      <c r="Q5" t="s">
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s">
         <v>54</v>
       </c>
-      <c r="R5" t="s">
+      <c r="V5" t="s">
         <v>54</v>
       </c>
-      <c r="S5" t="s">
+      <c r="W5" t="s">
         <v>54</v>
       </c>
-      <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
-      <c r="V5" t="s"/>
-      <c r="W5" t="s">
-        <v>55</v>
-      </c>
       <c r="X5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Y5" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z5" t="s"/>
-      <c r="AA5" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>56</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA5" t="s"/>
+      <c r="AB5" t="s"/>
+      <c r="AC5" t="s"/>
       <c r="AD5" t="s"/>
       <c r="AE5" t="s"/>
       <c r="AF5" t="s"/>
-      <c r="AG5" t="s">
-        <v>53</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>53</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>53</v>
-      </c>
+      <c r="AG5" t="s"/>
+      <c r="AH5" t="s"/>
+      <c r="AI5" t="s"/>
       <c r="AJ5" t="s"/>
       <c r="AK5" t="s"/>
       <c r="AL5" t="s"/>
@@ -5685,37 +5641,19 @@
       <c r="AP5" t="s"/>
       <c r="AQ5" t="s"/>
       <c r="AR5" t="s"/>
-      <c r="AS5" t="s">
-        <v>54</v>
-      </c>
-      <c r="AT5" t="s">
-        <v>54</v>
-      </c>
-      <c r="AU5" t="s">
-        <v>54</v>
-      </c>
+      <c r="AS5" t="s"/>
+      <c r="AT5" t="s"/>
+      <c r="AU5" t="s"/>
       <c r="AV5" t="s"/>
       <c r="AW5" t="s"/>
       <c r="AX5" t="s"/>
-      <c r="AY5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AZ5" t="s">
-        <v>55</v>
-      </c>
-      <c r="BA5" t="s">
-        <v>55</v>
-      </c>
+      <c r="AY5" t="s"/>
+      <c r="AZ5" t="s"/>
+      <c r="BA5" t="s"/>
       <c r="BB5" t="s"/>
-      <c r="BC5" t="s">
-        <v>56</v>
-      </c>
-      <c r="BD5" t="s">
-        <v>56</v>
-      </c>
-      <c r="BE5" t="s">
-        <v>56</v>
-      </c>
+      <c r="BC5" t="s"/>
+      <c r="BD5" t="s"/>
+      <c r="BE5" t="s"/>
       <c r="BF5" t="s"/>
       <c r="BG5" t="s"/>
       <c r="BH5" t="s"/>
@@ -5762,10 +5700,10 @@
     </row>
     <row r="6" spans="1:100">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s"/>
       <c r="D6" t="s"/>
@@ -5782,85 +5720,49 @@
       <c r="O6" t="s"/>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
-      <c r="R6" t="s">
-        <v>57</v>
-      </c>
-      <c r="S6" t="s">
-        <v>57</v>
-      </c>
-      <c r="T6" t="s">
-        <v>57</v>
-      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
       <c r="U6" t="s"/>
       <c r="V6" t="s"/>
       <c r="W6" t="s"/>
-      <c r="X6" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>58</v>
-      </c>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s"/>
+      <c r="Z6" t="s"/>
+      <c r="AA6" t="s"/>
+      <c r="AB6" t="s"/>
+      <c r="AC6" t="s"/>
       <c r="AD6" t="s"/>
       <c r="AE6" t="s"/>
-      <c r="AF6" t="s">
-        <v>59</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>59</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>59</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>59</v>
-      </c>
+      <c r="AF6" t="s"/>
+      <c r="AG6" t="s"/>
+      <c r="AH6" t="s"/>
+      <c r="AI6" t="s"/>
+      <c r="AJ6" t="s"/>
+      <c r="AK6" t="s"/>
       <c r="AL6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM6" t="s">
-        <v>60</v>
-      </c>
-      <c r="AN6" t="s"/>
+        <v>55</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>55</v>
+      </c>
       <c r="AO6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AP6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AQ6" t="s">
-        <v>60</v>
-      </c>
-      <c r="AR6" t="s">
-        <v>60</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="AR6" t="s"/>
       <c r="AS6" t="s"/>
-      <c r="AT6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV6" t="s">
-        <v>57</v>
-      </c>
+      <c r="AT6" t="s"/>
+      <c r="AU6" t="s"/>
+      <c r="AV6" t="s"/>
       <c r="AW6" t="s"/>
       <c r="AX6" t="s"/>
       <c r="AY6" t="s"/>
@@ -5879,12 +5781,24 @@
       <c r="BL6" t="s"/>
       <c r="BM6" t="s"/>
       <c r="BN6" t="s"/>
-      <c r="BO6" t="s"/>
-      <c r="BP6" t="s"/>
-      <c r="BQ6" t="s"/>
-      <c r="BR6" t="s"/>
-      <c r="BS6" t="s"/>
-      <c r="BT6" t="s"/>
+      <c r="BO6" t="s">
+        <v>56</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>56</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>56</v>
+      </c>
+      <c r="BR6" t="s">
+        <v>56</v>
+      </c>
+      <c r="BS6" t="s">
+        <v>56</v>
+      </c>
+      <c r="BT6" t="s">
+        <v>56</v>
+      </c>
       <c r="BU6" t="s"/>
       <c r="BV6" t="s"/>
       <c r="BW6" t="s"/>
@@ -5916,10 +5830,10 @@
     </row>
     <row r="7" spans="1:100">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s"/>
       <c r="D7" t="s"/>
@@ -5944,21 +5858,11 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s"/>
-      <c r="Z7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>61</v>
-      </c>
+      <c r="Z7" t="s"/>
+      <c r="AA7" t="s"/>
+      <c r="AB7" t="s"/>
+      <c r="AC7" t="s"/>
+      <c r="AD7" t="s"/>
       <c r="AE7" t="s"/>
       <c r="AF7" t="s"/>
       <c r="AG7" t="s"/>
@@ -5966,22 +5870,22 @@
       <c r="AI7" t="s"/>
       <c r="AJ7" t="s"/>
       <c r="AK7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="AL7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="AM7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="AN7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="AO7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="AP7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="AQ7" t="s"/>
       <c r="AR7" t="s"/>
@@ -5994,21 +5898,11 @@
       <c r="AY7" t="s"/>
       <c r="AZ7" t="s"/>
       <c r="BA7" t="s"/>
-      <c r="BB7" t="s">
-        <v>61</v>
-      </c>
-      <c r="BC7" t="s">
-        <v>61</v>
-      </c>
-      <c r="BD7" t="s">
-        <v>61</v>
-      </c>
-      <c r="BE7" t="s">
-        <v>61</v>
-      </c>
-      <c r="BF7" t="s">
-        <v>61</v>
-      </c>
+      <c r="BB7" t="s"/>
+      <c r="BC7" t="s"/>
+      <c r="BD7" t="s"/>
+      <c r="BE7" t="s"/>
+      <c r="BF7" t="s"/>
       <c r="BG7" t="s"/>
       <c r="BH7" t="s"/>
       <c r="BI7" t="s"/>
@@ -6017,24 +5911,12 @@
       <c r="BL7" t="s"/>
       <c r="BM7" t="s"/>
       <c r="BN7" t="s"/>
-      <c r="BO7" t="s">
-        <v>63</v>
-      </c>
-      <c r="BP7" t="s">
-        <v>63</v>
-      </c>
-      <c r="BQ7" t="s">
-        <v>63</v>
-      </c>
-      <c r="BR7" t="s">
-        <v>63</v>
-      </c>
-      <c r="BS7" t="s">
-        <v>63</v>
-      </c>
-      <c r="BT7" t="s">
-        <v>63</v>
-      </c>
+      <c r="BO7" t="s"/>
+      <c r="BP7" t="s"/>
+      <c r="BQ7" t="s"/>
+      <c r="BR7" t="s"/>
+      <c r="BS7" t="s"/>
+      <c r="BT7" t="s"/>
       <c r="BU7" t="s"/>
       <c r="BV7" t="s"/>
       <c r="BW7" t="s"/>
@@ -6066,10 +5948,10 @@
     </row>
     <row r="8" spans="1:100">
       <c r="A8" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s"/>
       <c r="D8" t="s"/>
@@ -6172,69 +6054,43 @@
     </row>
     <row r="9" spans="1:100">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s"/>
       <c r="D9" t="s"/>
-      <c r="E9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" t="s">
-        <v>65</v>
-      </c>
-      <c r="G9" t="s">
-        <v>65</v>
-      </c>
-      <c r="H9" t="s">
-        <v>65</v>
-      </c>
-      <c r="I9" t="s">
-        <v>65</v>
-      </c>
-      <c r="J9" t="s">
-        <v>65</v>
-      </c>
+      <c r="E9" t="s"/>
+      <c r="F9" t="s"/>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s"/>
       <c r="K9" t="s"/>
-      <c r="L9" t="s"/>
-      <c r="M9" t="s"/>
-      <c r="N9" t="s"/>
+      <c r="L9" t="s">
+        <v>59</v>
+      </c>
+      <c r="M9" t="s">
+        <v>59</v>
+      </c>
+      <c r="N9" t="s">
+        <v>59</v>
+      </c>
       <c r="O9" t="s"/>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
-      <c r="S9" t="s">
-        <v>66</v>
-      </c>
-      <c r="T9" t="s">
-        <v>66</v>
-      </c>
-      <c r="U9" t="s">
-        <v>66</v>
-      </c>
-      <c r="V9" t="s">
-        <v>66</v>
-      </c>
-      <c r="W9" t="s">
-        <v>67</v>
-      </c>
-      <c r="X9" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>67</v>
-      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="s"/>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s"/>
+      <c r="Z9" t="s"/>
+      <c r="AA9" t="s"/>
+      <c r="AB9" t="s"/>
       <c r="AC9" t="s"/>
       <c r="AD9" t="s"/>
       <c r="AE9" t="s"/>
@@ -6246,25 +6102,23 @@
       <c r="AK9" t="s"/>
       <c r="AL9" t="s"/>
       <c r="AM9" t="s"/>
-      <c r="AN9" t="s"/>
-      <c r="AO9" t="s"/>
-      <c r="AP9" t="s"/>
+      <c r="AN9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>59</v>
+      </c>
       <c r="AQ9" t="s"/>
       <c r="AR9" t="s"/>
       <c r="AS9" t="s"/>
       <c r="AT9" t="s"/>
-      <c r="AU9" t="s">
-        <v>66</v>
-      </c>
-      <c r="AV9" t="s">
-        <v>66</v>
-      </c>
-      <c r="AW9" t="s">
-        <v>66</v>
-      </c>
-      <c r="AX9" t="s">
-        <v>66</v>
-      </c>
+      <c r="AU9" t="s"/>
+      <c r="AV9" t="s"/>
+      <c r="AW9" t="s"/>
+      <c r="AX9" t="s"/>
       <c r="AY9" t="s"/>
       <c r="AZ9" t="s"/>
       <c r="BA9" t="s"/>
@@ -6318,34 +6172,60 @@
     </row>
     <row r="10" spans="1:100">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="C10" t="s"/>
-      <c r="D10" t="s"/>
-      <c r="E10" t="s"/>
-      <c r="F10" t="s">
-        <v>68</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" t="s"/>
       <c r="G10" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="H10" t="s">
-        <v>68</v>
-      </c>
-      <c r="I10" t="s"/>
-      <c r="J10" t="s"/>
-      <c r="K10" t="s"/>
-      <c r="L10" t="s"/>
-      <c r="M10" t="s"/>
-      <c r="N10" t="s"/>
-      <c r="O10" t="s"/>
-      <c r="P10" t="s"/>
-      <c r="Q10" t="s"/>
-      <c r="R10" t="s"/>
-      <c r="S10" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="I10" t="s">
+        <v>61</v>
+      </c>
+      <c r="J10" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" t="s">
+        <v>62</v>
+      </c>
+      <c r="L10" t="s">
+        <v>62</v>
+      </c>
+      <c r="M10" t="s">
+        <v>62</v>
+      </c>
+      <c r="N10" t="s">
+        <v>63</v>
+      </c>
+      <c r="O10" t="s">
+        <v>63</v>
+      </c>
+      <c r="P10" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>64</v>
+      </c>
+      <c r="R10" t="s">
+        <v>64</v>
+      </c>
+      <c r="S10" t="s">
+        <v>64</v>
+      </c>
       <c r="T10" t="s"/>
       <c r="U10" t="s"/>
       <c r="V10" t="s"/>
@@ -6357,40 +6237,78 @@
       <c r="AB10" t="s"/>
       <c r="AC10" t="s"/>
       <c r="AD10" t="s"/>
-      <c r="AE10" t="s"/>
-      <c r="AF10" t="s"/>
-      <c r="AG10" t="s"/>
-      <c r="AH10" t="s">
-        <v>68</v>
-      </c>
+      <c r="AE10" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH10" t="s"/>
       <c r="AI10" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="AJ10" t="s">
-        <v>68</v>
-      </c>
-      <c r="AK10" t="s"/>
-      <c r="AL10" t="s"/>
-      <c r="AM10" t="s"/>
-      <c r="AN10" t="s"/>
-      <c r="AO10" t="s"/>
-      <c r="AP10" t="s"/>
-      <c r="AQ10" t="s"/>
-      <c r="AR10" t="s"/>
-      <c r="AS10" t="s"/>
-      <c r="AT10" t="s"/>
-      <c r="AU10" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>63</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>63</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>63</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>64</v>
+      </c>
       <c r="AV10" t="s"/>
       <c r="AW10" t="s"/>
       <c r="AX10" t="s"/>
       <c r="AY10" t="s"/>
       <c r="AZ10" t="s"/>
-      <c r="BA10" t="s"/>
-      <c r="BB10" t="s"/>
-      <c r="BC10" t="s"/>
-      <c r="BD10" t="s"/>
-      <c r="BE10" t="s"/>
-      <c r="BF10" t="s"/>
+      <c r="BA10" t="s">
+        <v>65</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>65</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>65</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>65</v>
+      </c>
+      <c r="BE10" t="s">
+        <v>65</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>65</v>
+      </c>
       <c r="BG10" t="s"/>
       <c r="BH10" t="s"/>
       <c r="BI10" t="s"/>
@@ -6436,15 +6354,23 @@
     </row>
     <row r="11" spans="1:100">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="C11" t="s"/>
-      <c r="D11" t="s"/>
-      <c r="E11" t="s"/>
-      <c r="F11" t="s"/>
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" t="s">
+        <v>66</v>
+      </c>
       <c r="G11" t="s"/>
       <c r="H11" t="s"/>
       <c r="I11" t="s"/>
@@ -6452,9 +6378,15 @@
       <c r="K11" t="s"/>
       <c r="L11" t="s"/>
       <c r="M11" t="s"/>
-      <c r="N11" t="s"/>
-      <c r="O11" t="s"/>
-      <c r="P11" t="s"/>
+      <c r="N11" t="s">
+        <v>67</v>
+      </c>
+      <c r="O11" t="s">
+        <v>67</v>
+      </c>
+      <c r="P11" t="s">
+        <v>67</v>
+      </c>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
       <c r="S11" t="s"/>
@@ -6480,9 +6412,15 @@
       <c r="AM11" t="s"/>
       <c r="AN11" t="s"/>
       <c r="AO11" t="s"/>
-      <c r="AP11" t="s"/>
-      <c r="AQ11" t="s"/>
-      <c r="AR11" t="s"/>
+      <c r="AP11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>67</v>
+      </c>
       <c r="AS11" t="s"/>
       <c r="AT11" t="s"/>
       <c r="AU11" t="s"/>
@@ -6511,24 +6449,12 @@
       <c r="BR11" t="s"/>
       <c r="BS11" t="s"/>
       <c r="BT11" t="s"/>
-      <c r="BU11" t="s">
-        <v>69</v>
-      </c>
-      <c r="BV11" t="s">
-        <v>69</v>
-      </c>
-      <c r="BW11" t="s">
-        <v>69</v>
-      </c>
-      <c r="BX11" t="s">
-        <v>69</v>
-      </c>
-      <c r="BY11" t="s">
-        <v>69</v>
-      </c>
-      <c r="BZ11" t="s">
-        <v>69</v>
-      </c>
+      <c r="BU11" t="s"/>
+      <c r="BV11" t="s"/>
+      <c r="BW11" t="s"/>
+      <c r="BX11" t="s"/>
+      <c r="BY11" t="s"/>
+      <c r="BZ11" t="s"/>
       <c r="CA11" t="s"/>
       <c r="CB11" t="s"/>
       <c r="CC11" t="s"/>
@@ -6552,6 +6478,3786 @@
       <c r="CU11" t="s"/>
       <c r="CV11" t="s"/>
     </row>
+    <row r="12" spans="1:100">
+      <c r="A12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s"/>
+      <c r="D12" t="s"/>
+      <c r="E12" t="s"/>
+      <c r="F12" t="s"/>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s"/>
+      <c r="K12" t="s"/>
+      <c r="L12" t="s"/>
+      <c r="M12" t="s"/>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="s"/>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s"/>
+      <c r="Z12" t="s"/>
+      <c r="AA12" t="s"/>
+      <c r="AB12" t="s"/>
+      <c r="AC12" t="s"/>
+      <c r="AD12" t="s"/>
+      <c r="AE12" t="s"/>
+      <c r="AF12" t="s"/>
+      <c r="AG12" t="s"/>
+      <c r="AH12" t="s"/>
+      <c r="AI12" t="s"/>
+      <c r="AJ12" t="s"/>
+      <c r="AK12" t="s"/>
+      <c r="AL12" t="s"/>
+      <c r="AM12" t="s"/>
+      <c r="AN12" t="s"/>
+      <c r="AO12" t="s"/>
+      <c r="AP12" t="s"/>
+      <c r="AQ12" t="s"/>
+      <c r="AR12" t="s"/>
+      <c r="AS12" t="s"/>
+      <c r="AT12" t="s"/>
+      <c r="AU12" t="s"/>
+      <c r="AV12" t="s"/>
+      <c r="AW12" t="s"/>
+      <c r="AX12" t="s"/>
+      <c r="AY12" t="s"/>
+      <c r="AZ12" t="s"/>
+      <c r="BA12" t="s"/>
+      <c r="BB12" t="s"/>
+      <c r="BC12" t="s"/>
+      <c r="BD12" t="s"/>
+      <c r="BE12" t="s"/>
+      <c r="BF12" t="s"/>
+      <c r="BG12" t="s"/>
+      <c r="BH12" t="s"/>
+      <c r="BI12" t="s"/>
+      <c r="BJ12" t="s"/>
+      <c r="BK12" t="s"/>
+      <c r="BL12" t="s"/>
+      <c r="BM12" t="s"/>
+      <c r="BN12" t="s"/>
+      <c r="BO12" t="s"/>
+      <c r="BP12" t="s"/>
+      <c r="BQ12" t="s"/>
+      <c r="BR12" t="s"/>
+      <c r="BS12" t="s"/>
+      <c r="BT12" t="s"/>
+      <c r="BU12" t="s"/>
+      <c r="BV12" t="s"/>
+      <c r="BW12" t="s"/>
+      <c r="BX12" t="s"/>
+      <c r="BY12" t="s"/>
+      <c r="BZ12" t="s"/>
+      <c r="CA12" t="s"/>
+      <c r="CB12" t="s"/>
+      <c r="CC12" t="s"/>
+      <c r="CD12" t="s"/>
+      <c r="CE12" t="s"/>
+      <c r="CF12" t="s"/>
+      <c r="CG12" t="s"/>
+      <c r="CH12" t="s"/>
+      <c r="CI12" t="s"/>
+      <c r="CJ12" t="s"/>
+      <c r="CK12" t="s"/>
+      <c r="CL12" t="s"/>
+      <c r="CM12" t="s"/>
+      <c r="CN12" t="s"/>
+      <c r="CO12" t="s"/>
+      <c r="CP12" t="s"/>
+      <c r="CQ12" t="s"/>
+      <c r="CR12" t="s"/>
+      <c r="CS12" t="s"/>
+      <c r="CT12" t="s"/>
+      <c r="CU12" t="s"/>
+      <c r="CV12" t="s"/>
+    </row>
+    <row r="13" spans="1:100">
+      <c r="A13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="C13" t="s"/>
+      <c r="D13" t="s"/>
+      <c r="E13" t="s"/>
+      <c r="F13" t="s"/>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s"/>
+      <c r="K13" t="s"/>
+      <c r="L13" t="s"/>
+      <c r="M13" t="s"/>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="s"/>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s"/>
+      <c r="Z13" t="s"/>
+      <c r="AA13" t="s"/>
+      <c r="AB13" t="s"/>
+      <c r="AC13" t="s"/>
+      <c r="AD13" t="s"/>
+      <c r="AE13" t="s"/>
+      <c r="AF13" t="s"/>
+      <c r="AG13" t="s"/>
+      <c r="AH13" t="s"/>
+      <c r="AI13" t="s"/>
+      <c r="AJ13" t="s"/>
+      <c r="AK13" t="s"/>
+      <c r="AL13" t="s"/>
+      <c r="AM13" t="s"/>
+      <c r="AN13" t="s"/>
+      <c r="AO13" t="s"/>
+      <c r="AP13" t="s"/>
+      <c r="AQ13" t="s"/>
+      <c r="AR13" t="s"/>
+      <c r="AS13" t="s"/>
+      <c r="AT13" t="s"/>
+      <c r="AU13" t="s"/>
+      <c r="AV13" t="s"/>
+      <c r="AW13" t="s"/>
+      <c r="AX13" t="s"/>
+      <c r="AY13" t="s"/>
+      <c r="AZ13" t="s"/>
+      <c r="BA13" t="s"/>
+      <c r="BB13" t="s"/>
+      <c r="BC13" t="s"/>
+      <c r="BD13" t="s"/>
+      <c r="BE13" t="s"/>
+      <c r="BF13" t="s"/>
+      <c r="BG13" t="s"/>
+      <c r="BH13" t="s"/>
+      <c r="BI13" t="s"/>
+      <c r="BJ13" t="s"/>
+      <c r="BK13" t="s"/>
+      <c r="BL13" t="s"/>
+      <c r="BM13" t="s"/>
+      <c r="BN13" t="s"/>
+      <c r="BO13" t="s"/>
+      <c r="BP13" t="s"/>
+      <c r="BQ13" t="s"/>
+      <c r="BR13" t="s"/>
+      <c r="BS13" t="s"/>
+      <c r="BT13" t="s"/>
+      <c r="BU13" t="s"/>
+      <c r="BV13" t="s"/>
+      <c r="BW13" t="s"/>
+      <c r="BX13" t="s"/>
+      <c r="BY13" t="s"/>
+      <c r="BZ13" t="s"/>
+      <c r="CA13" t="s"/>
+      <c r="CB13" t="s"/>
+      <c r="CC13" t="s"/>
+      <c r="CD13" t="s"/>
+      <c r="CE13" t="s"/>
+      <c r="CF13" t="s"/>
+      <c r="CG13" t="s"/>
+      <c r="CH13" t="s"/>
+      <c r="CI13" t="s"/>
+      <c r="CJ13" t="s"/>
+      <c r="CK13" t="s"/>
+      <c r="CL13" t="s"/>
+      <c r="CM13" t="s"/>
+      <c r="CN13" t="s"/>
+      <c r="CO13" t="s"/>
+      <c r="CP13" t="s"/>
+      <c r="CQ13" t="s"/>
+      <c r="CR13" t="s"/>
+      <c r="CS13" t="s"/>
+      <c r="CT13" t="s"/>
+      <c r="CU13" t="s"/>
+      <c r="CV13" t="s"/>
+    </row>
+    <row r="14" spans="1:100">
+      <c r="A14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="C14" t="s"/>
+      <c r="D14" t="s"/>
+      <c r="E14" t="s"/>
+      <c r="F14" t="s"/>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s"/>
+      <c r="K14" t="s"/>
+      <c r="L14" t="s"/>
+      <c r="M14" t="s"/>
+      <c r="N14" t="s"/>
+      <c r="O14" t="s"/>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="s"/>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s"/>
+      <c r="Z14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC14" t="s"/>
+      <c r="AD14" t="s"/>
+      <c r="AE14" t="s"/>
+      <c r="AF14" t="s"/>
+      <c r="AG14" t="s"/>
+      <c r="AH14" t="s"/>
+      <c r="AI14" t="s"/>
+      <c r="AJ14" t="s"/>
+      <c r="AK14" t="s"/>
+      <c r="AL14" t="s"/>
+      <c r="AM14" t="s"/>
+      <c r="AN14" t="s"/>
+      <c r="AO14" t="s"/>
+      <c r="AP14" t="s"/>
+      <c r="AQ14" t="s"/>
+      <c r="AR14" t="s"/>
+      <c r="AS14" t="s"/>
+      <c r="AT14" t="s"/>
+      <c r="AU14" t="s"/>
+      <c r="AV14" t="s"/>
+      <c r="AW14" t="s"/>
+      <c r="AX14" t="s"/>
+      <c r="AY14" t="s"/>
+      <c r="AZ14" t="s"/>
+      <c r="BA14" t="s"/>
+      <c r="BB14" t="s">
+        <v>70</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>70</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>70</v>
+      </c>
+      <c r="BE14" t="s"/>
+      <c r="BF14" t="s"/>
+      <c r="BG14" t="s"/>
+      <c r="BH14" t="s"/>
+      <c r="BI14" t="s"/>
+      <c r="BJ14" t="s"/>
+      <c r="BK14" t="s"/>
+      <c r="BL14" t="s"/>
+      <c r="BM14" t="s"/>
+      <c r="BN14" t="s"/>
+      <c r="BO14" t="s"/>
+      <c r="BP14" t="s"/>
+      <c r="BQ14" t="s"/>
+      <c r="BR14" t="s"/>
+      <c r="BS14" t="s"/>
+      <c r="BT14" t="s"/>
+      <c r="BU14" t="s"/>
+      <c r="BV14" t="s"/>
+      <c r="BW14" t="s"/>
+      <c r="BX14" t="s"/>
+      <c r="BY14" t="s"/>
+      <c r="BZ14" t="s"/>
+      <c r="CA14" t="s"/>
+      <c r="CB14" t="s"/>
+      <c r="CC14" t="s"/>
+      <c r="CD14" t="s"/>
+      <c r="CE14" t="s"/>
+      <c r="CF14" t="s"/>
+      <c r="CG14" t="s"/>
+      <c r="CH14" t="s"/>
+      <c r="CI14" t="s"/>
+      <c r="CJ14" t="s"/>
+      <c r="CK14" t="s"/>
+      <c r="CL14" t="s"/>
+      <c r="CM14" t="s"/>
+      <c r="CN14" t="s"/>
+      <c r="CO14" t="s"/>
+      <c r="CP14" t="s"/>
+      <c r="CQ14" t="s"/>
+      <c r="CR14" t="s"/>
+      <c r="CS14" t="s"/>
+      <c r="CT14" t="s"/>
+      <c r="CU14" t="s"/>
+      <c r="CV14" t="s"/>
+    </row>
+    <row r="15" spans="1:100">
+      <c r="A15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="C15" t="s"/>
+      <c r="D15" t="s"/>
+      <c r="E15" t="s"/>
+      <c r="F15" t="s"/>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s"/>
+      <c r="K15" t="s"/>
+      <c r="L15" t="s"/>
+      <c r="M15" t="s"/>
+      <c r="N15" t="s"/>
+      <c r="O15" t="s"/>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="s"/>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB15" t="s"/>
+      <c r="AC15" t="s"/>
+      <c r="AD15" t="s"/>
+      <c r="AE15" t="s"/>
+      <c r="AF15" t="s"/>
+      <c r="AG15" t="s"/>
+      <c r="AH15" t="s"/>
+      <c r="AI15" t="s"/>
+      <c r="AJ15" t="s"/>
+      <c r="AK15" t="s"/>
+      <c r="AL15" t="s"/>
+      <c r="AM15" t="s"/>
+      <c r="AN15" t="s"/>
+      <c r="AO15" t="s"/>
+      <c r="AP15" t="s"/>
+      <c r="AQ15" t="s"/>
+      <c r="AR15" t="s"/>
+      <c r="AS15" t="s"/>
+      <c r="AT15" t="s"/>
+      <c r="AU15" t="s"/>
+      <c r="AV15" t="s"/>
+      <c r="AW15" t="s"/>
+      <c r="AX15" t="s"/>
+      <c r="AY15" t="s"/>
+      <c r="AZ15" t="s"/>
+      <c r="BA15" t="s">
+        <v>71</v>
+      </c>
+      <c r="BB15" t="s">
+        <v>71</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>71</v>
+      </c>
+      <c r="BD15" t="s"/>
+      <c r="BE15" t="s"/>
+      <c r="BF15" t="s"/>
+      <c r="BG15" t="s"/>
+      <c r="BH15" t="s"/>
+      <c r="BI15" t="s"/>
+      <c r="BJ15" t="s"/>
+      <c r="BK15" t="s"/>
+      <c r="BL15" t="s"/>
+      <c r="BM15" t="s"/>
+      <c r="BN15" t="s"/>
+      <c r="BO15" t="s"/>
+      <c r="BP15" t="s"/>
+      <c r="BQ15" t="s"/>
+      <c r="BR15" t="s"/>
+      <c r="BS15" t="s"/>
+      <c r="BT15" t="s"/>
+      <c r="BU15" t="s"/>
+      <c r="BV15" t="s"/>
+      <c r="BW15" t="s"/>
+      <c r="BX15" t="s"/>
+      <c r="BY15" t="s"/>
+      <c r="BZ15" t="s"/>
+      <c r="CA15" t="s"/>
+      <c r="CB15" t="s"/>
+      <c r="CC15" t="s"/>
+      <c r="CD15" t="s"/>
+      <c r="CE15" t="s"/>
+      <c r="CF15" t="s"/>
+      <c r="CG15" t="s"/>
+      <c r="CH15" t="s"/>
+      <c r="CI15" t="s"/>
+      <c r="CJ15" t="s"/>
+      <c r="CK15" t="s"/>
+      <c r="CL15" t="s"/>
+      <c r="CM15" t="s"/>
+      <c r="CN15" t="s"/>
+      <c r="CO15" t="s"/>
+      <c r="CP15" t="s"/>
+      <c r="CQ15" t="s"/>
+      <c r="CR15" t="s"/>
+      <c r="CS15" t="s"/>
+      <c r="CT15" t="s"/>
+      <c r="CU15" t="s"/>
+      <c r="CV15" t="s"/>
+    </row>
+    <row r="16" spans="1:100">
+      <c r="A16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s"/>
+      <c r="D16" t="s"/>
+      <c r="E16" t="s"/>
+      <c r="F16" t="s"/>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s"/>
+      <c r="K16" t="s"/>
+      <c r="L16" t="s"/>
+      <c r="M16" t="s"/>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="s"/>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s"/>
+      <c r="Z16" t="s"/>
+      <c r="AA16" t="s"/>
+      <c r="AB16" t="s"/>
+      <c r="AC16" t="s"/>
+      <c r="AD16" t="s"/>
+      <c r="AE16" t="s"/>
+      <c r="AF16" t="s"/>
+      <c r="AG16" t="s"/>
+      <c r="AH16" t="s"/>
+      <c r="AI16" t="s"/>
+      <c r="AJ16" t="s"/>
+      <c r="AK16" t="s"/>
+      <c r="AL16" t="s"/>
+      <c r="AM16" t="s"/>
+      <c r="AN16" t="s"/>
+      <c r="AO16" t="s"/>
+      <c r="AP16" t="s"/>
+      <c r="AQ16" t="s"/>
+      <c r="AR16" t="s"/>
+      <c r="AS16" t="s"/>
+      <c r="AT16" t="s"/>
+      <c r="AU16" t="s"/>
+      <c r="AV16" t="s"/>
+      <c r="AW16" t="s"/>
+      <c r="AX16" t="s"/>
+      <c r="AY16" t="s"/>
+      <c r="AZ16" t="s"/>
+      <c r="BA16" t="s"/>
+      <c r="BB16" t="s"/>
+      <c r="BC16" t="s"/>
+      <c r="BD16" t="s"/>
+      <c r="BE16" t="s"/>
+      <c r="BF16" t="s"/>
+      <c r="BG16" t="s"/>
+      <c r="BH16" t="s"/>
+      <c r="BI16" t="s"/>
+      <c r="BJ16" t="s"/>
+      <c r="BK16" t="s"/>
+      <c r="BL16" t="s"/>
+      <c r="BM16" t="s"/>
+      <c r="BN16" t="s"/>
+      <c r="BO16" t="s"/>
+      <c r="BP16" t="s"/>
+      <c r="BQ16" t="s"/>
+      <c r="BR16" t="s"/>
+      <c r="BS16" t="s"/>
+      <c r="BT16" t="s"/>
+      <c r="BU16" t="s"/>
+      <c r="BV16" t="s"/>
+      <c r="BW16" t="s"/>
+      <c r="BX16" t="s"/>
+      <c r="BY16" t="s"/>
+      <c r="BZ16" t="s"/>
+      <c r="CA16" t="s"/>
+      <c r="CB16" t="s"/>
+      <c r="CC16" t="s"/>
+      <c r="CD16" t="s"/>
+      <c r="CE16" t="s"/>
+      <c r="CF16" t="s"/>
+      <c r="CG16" t="s"/>
+      <c r="CH16" t="s"/>
+      <c r="CI16" t="s"/>
+      <c r="CJ16" t="s"/>
+      <c r="CK16" t="s"/>
+      <c r="CL16" t="s"/>
+      <c r="CM16" t="s"/>
+      <c r="CN16" t="s"/>
+      <c r="CO16" t="s"/>
+      <c r="CP16" t="s"/>
+      <c r="CQ16" t="s"/>
+      <c r="CR16" t="s"/>
+      <c r="CS16" t="s"/>
+      <c r="CT16" t="s"/>
+      <c r="CU16" t="s"/>
+      <c r="CV16" t="s"/>
+    </row>
+    <row r="17" spans="1:100">
+      <c r="A17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s"/>
+      <c r="D17" t="s"/>
+      <c r="E17" t="s"/>
+      <c r="F17" t="s"/>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s"/>
+      <c r="K17" t="s"/>
+      <c r="L17" t="s"/>
+      <c r="M17" t="s"/>
+      <c r="N17" t="s"/>
+      <c r="O17" t="s"/>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s">
+        <v>73</v>
+      </c>
+      <c r="R17" t="s">
+        <v>73</v>
+      </c>
+      <c r="S17" t="s">
+        <v>73</v>
+      </c>
+      <c r="T17" t="s">
+        <v>73</v>
+      </c>
+      <c r="U17" t="s">
+        <v>73</v>
+      </c>
+      <c r="V17" t="s"/>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s"/>
+      <c r="Z17" t="s"/>
+      <c r="AA17" t="s"/>
+      <c r="AB17" t="s"/>
+      <c r="AC17" t="s"/>
+      <c r="AD17" t="s"/>
+      <c r="AE17" t="s"/>
+      <c r="AF17" t="s"/>
+      <c r="AG17" t="s"/>
+      <c r="AH17" t="s"/>
+      <c r="AI17" t="s"/>
+      <c r="AJ17" t="s"/>
+      <c r="AK17" t="s"/>
+      <c r="AL17" t="s"/>
+      <c r="AM17" t="s"/>
+      <c r="AN17" t="s"/>
+      <c r="AO17" t="s"/>
+      <c r="AP17" t="s"/>
+      <c r="AQ17" t="s"/>
+      <c r="AR17" t="s"/>
+      <c r="AS17" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW17" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX17" t="s"/>
+      <c r="AY17" t="s"/>
+      <c r="AZ17" t="s"/>
+      <c r="BA17" t="s"/>
+      <c r="BB17" t="s"/>
+      <c r="BC17" t="s"/>
+      <c r="BD17" t="s"/>
+      <c r="BE17" t="s"/>
+      <c r="BF17" t="s"/>
+      <c r="BG17" t="s"/>
+      <c r="BH17" t="s"/>
+      <c r="BI17" t="s"/>
+      <c r="BJ17" t="s"/>
+      <c r="BK17" t="s"/>
+      <c r="BL17" t="s"/>
+      <c r="BM17" t="s"/>
+      <c r="BN17" t="s"/>
+      <c r="BO17" t="s"/>
+      <c r="BP17" t="s"/>
+      <c r="BQ17" t="s"/>
+      <c r="BR17" t="s"/>
+      <c r="BS17" t="s"/>
+      <c r="BT17" t="s"/>
+      <c r="BU17" t="s"/>
+      <c r="BV17" t="s"/>
+      <c r="BW17" t="s"/>
+      <c r="BX17" t="s"/>
+      <c r="BY17" t="s"/>
+      <c r="BZ17" t="s"/>
+      <c r="CA17" t="s"/>
+      <c r="CB17" t="s"/>
+      <c r="CC17" t="s"/>
+      <c r="CD17" t="s"/>
+      <c r="CE17" t="s"/>
+      <c r="CF17" t="s"/>
+      <c r="CG17" t="s"/>
+      <c r="CH17" t="s"/>
+      <c r="CI17" t="s"/>
+      <c r="CJ17" t="s"/>
+      <c r="CK17" t="s"/>
+      <c r="CL17" t="s"/>
+      <c r="CM17" t="s"/>
+      <c r="CN17" t="s"/>
+      <c r="CO17" t="s"/>
+      <c r="CP17" t="s"/>
+      <c r="CQ17" t="s"/>
+      <c r="CR17" t="s"/>
+      <c r="CS17" t="s"/>
+      <c r="CT17" t="s"/>
+      <c r="CU17" t="s"/>
+      <c r="CV17" t="s"/>
+    </row>
+    <row r="18" spans="1:100">
+      <c r="A18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="C18" t="s"/>
+      <c r="D18" t="s"/>
+      <c r="E18" t="s"/>
+      <c r="F18" t="s"/>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s"/>
+      <c r="K18" t="s"/>
+      <c r="L18" t="s"/>
+      <c r="M18" t="s"/>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="s"/>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s"/>
+      <c r="Z18" t="s"/>
+      <c r="AA18" t="s"/>
+      <c r="AB18" t="s"/>
+      <c r="AC18" t="s"/>
+      <c r="AD18" t="s"/>
+      <c r="AE18" t="s"/>
+      <c r="AF18" t="s"/>
+      <c r="AG18" t="s"/>
+      <c r="AH18" t="s"/>
+      <c r="AI18" t="s"/>
+      <c r="AJ18" t="s"/>
+      <c r="AK18" t="s"/>
+      <c r="AL18" t="s"/>
+      <c r="AM18" t="s"/>
+      <c r="AN18" t="s"/>
+      <c r="AO18" t="s"/>
+      <c r="AP18" t="s"/>
+      <c r="AQ18" t="s"/>
+      <c r="AR18" t="s"/>
+      <c r="AS18" t="s"/>
+      <c r="AT18" t="s"/>
+      <c r="AU18" t="s"/>
+      <c r="AV18" t="s"/>
+      <c r="AW18" t="s"/>
+      <c r="AX18" t="s"/>
+      <c r="AY18" t="s"/>
+      <c r="AZ18" t="s"/>
+      <c r="BA18" t="s"/>
+      <c r="BB18" t="s"/>
+      <c r="BC18" t="s"/>
+      <c r="BD18" t="s"/>
+      <c r="BE18" t="s"/>
+      <c r="BF18" t="s"/>
+      <c r="BG18" t="s"/>
+      <c r="BH18" t="s"/>
+      <c r="BI18" t="s"/>
+      <c r="BJ18" t="s"/>
+      <c r="BK18" t="s"/>
+      <c r="BL18" t="s"/>
+      <c r="BM18" t="s"/>
+      <c r="BN18" t="s"/>
+      <c r="BO18" t="s"/>
+      <c r="BP18" t="s"/>
+      <c r="BQ18" t="s"/>
+      <c r="BR18" t="s"/>
+      <c r="BS18" t="s"/>
+      <c r="BT18" t="s"/>
+      <c r="BU18" t="s"/>
+      <c r="BV18" t="s"/>
+      <c r="BW18" t="s"/>
+      <c r="BX18" t="s"/>
+      <c r="BY18" t="s"/>
+      <c r="BZ18" t="s"/>
+      <c r="CA18" t="s"/>
+      <c r="CB18" t="s"/>
+      <c r="CC18" t="s"/>
+      <c r="CD18" t="s"/>
+      <c r="CE18" t="s"/>
+      <c r="CF18" t="s"/>
+      <c r="CG18" t="s"/>
+      <c r="CH18" t="s"/>
+      <c r="CI18" t="s"/>
+      <c r="CJ18" t="s"/>
+      <c r="CK18" t="s"/>
+      <c r="CL18" t="s"/>
+      <c r="CM18" t="s"/>
+      <c r="CN18" t="s"/>
+      <c r="CO18" t="s"/>
+      <c r="CP18" t="s"/>
+      <c r="CQ18" t="s"/>
+      <c r="CR18" t="s"/>
+      <c r="CS18" t="s"/>
+      <c r="CT18" t="s"/>
+      <c r="CU18" t="s"/>
+      <c r="CV18" t="s"/>
+    </row>
+    <row r="19" spans="1:100">
+      <c r="A19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="C19" t="s"/>
+      <c r="D19" t="s"/>
+      <c r="E19" t="s"/>
+      <c r="F19" t="s"/>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s"/>
+      <c r="K19" t="s"/>
+      <c r="L19" t="s"/>
+      <c r="M19" t="s"/>
+      <c r="N19" t="s"/>
+      <c r="O19" t="s"/>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="s"/>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s"/>
+      <c r="Z19" t="s"/>
+      <c r="AA19" t="s"/>
+      <c r="AB19" t="s"/>
+      <c r="AC19" t="s"/>
+      <c r="AD19" t="s"/>
+      <c r="AE19" t="s"/>
+      <c r="AF19" t="s"/>
+      <c r="AG19" t="s"/>
+      <c r="AH19" t="s"/>
+      <c r="AI19" t="s"/>
+      <c r="AJ19" t="s"/>
+      <c r="AK19" t="s"/>
+      <c r="AL19" t="s"/>
+      <c r="AM19" t="s"/>
+      <c r="AN19" t="s"/>
+      <c r="AO19" t="s"/>
+      <c r="AP19" t="s"/>
+      <c r="AQ19" t="s"/>
+      <c r="AR19" t="s"/>
+      <c r="AS19" t="s"/>
+      <c r="AT19" t="s"/>
+      <c r="AU19" t="s"/>
+      <c r="AV19" t="s"/>
+      <c r="AW19" t="s"/>
+      <c r="AX19" t="s"/>
+      <c r="AY19" t="s"/>
+      <c r="AZ19" t="s"/>
+      <c r="BA19" t="s"/>
+      <c r="BB19" t="s"/>
+      <c r="BC19" t="s"/>
+      <c r="BD19" t="s"/>
+      <c r="BE19" t="s"/>
+      <c r="BF19" t="s"/>
+      <c r="BG19" t="s"/>
+      <c r="BH19" t="s"/>
+      <c r="BI19" t="s"/>
+      <c r="BJ19" t="s"/>
+      <c r="BK19" t="s"/>
+      <c r="BL19" t="s"/>
+      <c r="BM19" t="s"/>
+      <c r="BN19" t="s"/>
+      <c r="BO19" t="s"/>
+      <c r="BP19" t="s"/>
+      <c r="BQ19" t="s"/>
+      <c r="BR19" t="s"/>
+      <c r="BS19" t="s"/>
+      <c r="BT19" t="s"/>
+      <c r="BU19" t="s"/>
+      <c r="BV19" t="s"/>
+      <c r="BW19" t="s"/>
+      <c r="BX19" t="s"/>
+      <c r="BY19" t="s"/>
+      <c r="BZ19" t="s"/>
+      <c r="CA19" t="s"/>
+      <c r="CB19" t="s"/>
+      <c r="CC19" t="s"/>
+      <c r="CD19" t="s"/>
+      <c r="CE19" t="s"/>
+      <c r="CF19" t="s"/>
+      <c r="CG19" t="s"/>
+      <c r="CH19" t="s"/>
+      <c r="CI19" t="s"/>
+      <c r="CJ19" t="s"/>
+      <c r="CK19" t="s"/>
+      <c r="CL19" t="s"/>
+      <c r="CM19" t="s"/>
+      <c r="CN19" t="s"/>
+      <c r="CO19" t="s"/>
+      <c r="CP19" t="s"/>
+      <c r="CQ19" t="s"/>
+      <c r="CR19" t="s"/>
+      <c r="CS19" t="s"/>
+      <c r="CT19" t="s"/>
+      <c r="CU19" t="s"/>
+      <c r="CV19" t="s"/>
+    </row>
+    <row r="20" spans="1:100">
+      <c r="A20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="C20" t="s"/>
+      <c r="D20" t="s"/>
+      <c r="E20" t="s"/>
+      <c r="F20" t="s"/>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s"/>
+      <c r="K20" t="s"/>
+      <c r="L20" t="s"/>
+      <c r="M20" t="s"/>
+      <c r="N20" t="s"/>
+      <c r="O20" t="s"/>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="s"/>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s"/>
+      <c r="Z20" t="s"/>
+      <c r="AA20" t="s"/>
+      <c r="AB20" t="s"/>
+      <c r="AC20" t="s"/>
+      <c r="AD20" t="s"/>
+      <c r="AE20" t="s"/>
+      <c r="AF20" t="s"/>
+      <c r="AG20" t="s"/>
+      <c r="AH20" t="s"/>
+      <c r="AI20" t="s"/>
+      <c r="AJ20" t="s"/>
+      <c r="AK20" t="s"/>
+      <c r="AL20" t="s"/>
+      <c r="AM20" t="s"/>
+      <c r="AN20" t="s"/>
+      <c r="AO20" t="s"/>
+      <c r="AP20" t="s"/>
+      <c r="AQ20" t="s"/>
+      <c r="AR20" t="s"/>
+      <c r="AS20" t="s"/>
+      <c r="AT20" t="s"/>
+      <c r="AU20" t="s"/>
+      <c r="AV20" t="s"/>
+      <c r="AW20" t="s"/>
+      <c r="AX20" t="s"/>
+      <c r="AY20" t="s"/>
+      <c r="AZ20" t="s"/>
+      <c r="BA20" t="s"/>
+      <c r="BB20" t="s"/>
+      <c r="BC20" t="s"/>
+      <c r="BD20" t="s"/>
+      <c r="BE20" t="s"/>
+      <c r="BF20" t="s"/>
+      <c r="BG20" t="s"/>
+      <c r="BH20" t="s"/>
+      <c r="BI20" t="s"/>
+      <c r="BJ20" t="s"/>
+      <c r="BK20" t="s"/>
+      <c r="BL20" t="s"/>
+      <c r="BM20" t="s"/>
+      <c r="BN20" t="s"/>
+      <c r="BO20" t="s"/>
+      <c r="BP20" t="s"/>
+      <c r="BQ20" t="s"/>
+      <c r="BR20" t="s"/>
+      <c r="BS20" t="s"/>
+      <c r="BT20" t="s"/>
+      <c r="BU20" t="s"/>
+      <c r="BV20" t="s"/>
+      <c r="BW20" t="s"/>
+      <c r="BX20" t="s"/>
+      <c r="BY20" t="s"/>
+      <c r="BZ20" t="s"/>
+      <c r="CA20" t="s"/>
+      <c r="CB20" t="s"/>
+      <c r="CC20" t="s"/>
+      <c r="CD20" t="s"/>
+      <c r="CE20" t="s"/>
+      <c r="CF20" t="s"/>
+      <c r="CG20" t="s"/>
+      <c r="CH20" t="s"/>
+      <c r="CI20" t="s"/>
+      <c r="CJ20" t="s"/>
+      <c r="CK20" t="s"/>
+      <c r="CL20" t="s"/>
+      <c r="CM20" t="s"/>
+      <c r="CN20" t="s"/>
+      <c r="CO20" t="s"/>
+      <c r="CP20" t="s"/>
+      <c r="CQ20" t="s"/>
+      <c r="CR20" t="s"/>
+      <c r="CS20" t="s"/>
+      <c r="CT20" t="s"/>
+      <c r="CU20" t="s"/>
+      <c r="CV20" t="s"/>
+    </row>
+    <row r="21" spans="1:100">
+      <c r="A21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="C21" t="s"/>
+      <c r="D21" t="s"/>
+      <c r="E21" t="s"/>
+      <c r="F21" t="s"/>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s"/>
+      <c r="K21" t="s"/>
+      <c r="L21" t="s"/>
+      <c r="M21" t="s"/>
+      <c r="N21" t="s"/>
+      <c r="O21" t="s"/>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="s"/>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s"/>
+      <c r="Z21" t="s"/>
+      <c r="AA21" t="s"/>
+      <c r="AB21" t="s"/>
+      <c r="AC21" t="s"/>
+      <c r="AD21" t="s"/>
+      <c r="AE21" t="s"/>
+      <c r="AF21" t="s"/>
+      <c r="AG21" t="s"/>
+      <c r="AH21" t="s"/>
+      <c r="AI21" t="s"/>
+      <c r="AJ21" t="s"/>
+      <c r="AK21" t="s"/>
+      <c r="AL21" t="s"/>
+      <c r="AM21" t="s"/>
+      <c r="AN21" t="s"/>
+      <c r="AO21" t="s"/>
+      <c r="AP21" t="s"/>
+      <c r="AQ21" t="s"/>
+      <c r="AR21" t="s"/>
+      <c r="AS21" t="s"/>
+      <c r="AT21" t="s"/>
+      <c r="AU21" t="s"/>
+      <c r="AV21" t="s"/>
+      <c r="AW21" t="s"/>
+      <c r="AX21" t="s"/>
+      <c r="AY21" t="s"/>
+      <c r="AZ21" t="s"/>
+      <c r="BA21" t="s"/>
+      <c r="BB21" t="s"/>
+      <c r="BC21" t="s"/>
+      <c r="BD21" t="s"/>
+      <c r="BE21" t="s"/>
+      <c r="BF21" t="s"/>
+      <c r="BG21" t="s"/>
+      <c r="BH21" t="s"/>
+      <c r="BI21" t="s"/>
+      <c r="BJ21" t="s"/>
+      <c r="BK21" t="s"/>
+      <c r="BL21" t="s"/>
+      <c r="BM21" t="s"/>
+      <c r="BN21" t="s"/>
+      <c r="BO21" t="s"/>
+      <c r="BP21" t="s"/>
+      <c r="BQ21" t="s"/>
+      <c r="BR21" t="s"/>
+      <c r="BS21" t="s"/>
+      <c r="BT21" t="s"/>
+      <c r="BU21" t="s"/>
+      <c r="BV21" t="s"/>
+      <c r="BW21" t="s"/>
+      <c r="BX21" t="s"/>
+      <c r="BY21" t="s"/>
+      <c r="BZ21" t="s"/>
+      <c r="CA21" t="s"/>
+      <c r="CB21" t="s"/>
+      <c r="CC21" t="s"/>
+      <c r="CD21" t="s"/>
+      <c r="CE21" t="s"/>
+      <c r="CF21" t="s"/>
+      <c r="CG21" t="s"/>
+      <c r="CH21" t="s"/>
+      <c r="CI21" t="s"/>
+      <c r="CJ21" t="s"/>
+      <c r="CK21" t="s"/>
+      <c r="CL21" t="s"/>
+      <c r="CM21" t="s"/>
+      <c r="CN21" t="s"/>
+      <c r="CO21" t="s"/>
+      <c r="CP21" t="s"/>
+      <c r="CQ21" t="s"/>
+      <c r="CR21" t="s"/>
+      <c r="CS21" t="s"/>
+      <c r="CT21" t="s"/>
+      <c r="CU21" t="s"/>
+      <c r="CV21" t="s"/>
+    </row>
+    <row r="22" spans="1:100">
+      <c r="A22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="C22" t="s"/>
+      <c r="D22" t="s"/>
+      <c r="E22" t="s"/>
+      <c r="F22" t="s"/>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s"/>
+      <c r="K22" t="s"/>
+      <c r="L22" t="s"/>
+      <c r="M22" t="s"/>
+      <c r="N22" t="s"/>
+      <c r="O22" t="s"/>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="s"/>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s"/>
+      <c r="Z22" t="s"/>
+      <c r="AA22" t="s"/>
+      <c r="AB22" t="s"/>
+      <c r="AC22" t="s"/>
+      <c r="AD22" t="s"/>
+      <c r="AE22" t="s"/>
+      <c r="AF22" t="s"/>
+      <c r="AG22" t="s"/>
+      <c r="AH22" t="s"/>
+      <c r="AI22" t="s"/>
+      <c r="AJ22" t="s"/>
+      <c r="AK22" t="s"/>
+      <c r="AL22" t="s"/>
+      <c r="AM22" t="s"/>
+      <c r="AN22" t="s"/>
+      <c r="AO22" t="s"/>
+      <c r="AP22" t="s"/>
+      <c r="AQ22" t="s"/>
+      <c r="AR22" t="s"/>
+      <c r="AS22" t="s"/>
+      <c r="AT22" t="s"/>
+      <c r="AU22" t="s"/>
+      <c r="AV22" t="s"/>
+      <c r="AW22" t="s"/>
+      <c r="AX22" t="s"/>
+      <c r="AY22" t="s"/>
+      <c r="AZ22" t="s"/>
+      <c r="BA22" t="s"/>
+      <c r="BB22" t="s"/>
+      <c r="BC22" t="s"/>
+      <c r="BD22" t="s"/>
+      <c r="BE22" t="s"/>
+      <c r="BF22" t="s"/>
+      <c r="BG22" t="s"/>
+      <c r="BH22" t="s"/>
+      <c r="BI22" t="s"/>
+      <c r="BJ22" t="s"/>
+      <c r="BK22" t="s"/>
+      <c r="BL22" t="s"/>
+      <c r="BM22" t="s"/>
+      <c r="BN22" t="s"/>
+      <c r="BO22" t="s"/>
+      <c r="BP22" t="s"/>
+      <c r="BQ22" t="s"/>
+      <c r="BR22" t="s"/>
+      <c r="BS22" t="s"/>
+      <c r="BT22" t="s"/>
+      <c r="BU22" t="s"/>
+      <c r="BV22" t="s"/>
+      <c r="BW22" t="s"/>
+      <c r="BX22" t="s"/>
+      <c r="BY22" t="s"/>
+      <c r="BZ22" t="s"/>
+      <c r="CA22" t="s"/>
+      <c r="CB22" t="s"/>
+      <c r="CC22" t="s"/>
+      <c r="CD22" t="s"/>
+      <c r="CE22" t="s"/>
+      <c r="CF22" t="s"/>
+      <c r="CG22" t="s"/>
+      <c r="CH22" t="s"/>
+      <c r="CI22" t="s"/>
+      <c r="CJ22" t="s"/>
+      <c r="CK22" t="s"/>
+      <c r="CL22" t="s"/>
+      <c r="CM22" t="s"/>
+      <c r="CN22" t="s"/>
+      <c r="CO22" t="s"/>
+      <c r="CP22" t="s"/>
+      <c r="CQ22" t="s"/>
+      <c r="CR22" t="s"/>
+      <c r="CS22" t="s"/>
+      <c r="CT22" t="s"/>
+      <c r="CU22" t="s"/>
+      <c r="CV22" t="s"/>
+    </row>
+    <row r="23" spans="1:100">
+      <c r="A23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="C23" t="s"/>
+      <c r="D23" t="s"/>
+      <c r="E23" t="s"/>
+      <c r="F23" t="s"/>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s"/>
+      <c r="K23" t="s"/>
+      <c r="L23" t="s"/>
+      <c r="M23" t="s"/>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="s"/>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE23" t="s"/>
+      <c r="AF23" t="s"/>
+      <c r="AG23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM23" t="s"/>
+      <c r="AN23" t="s"/>
+      <c r="AO23" t="s"/>
+      <c r="AP23" t="s"/>
+      <c r="AQ23" t="s"/>
+      <c r="AR23" t="s"/>
+      <c r="AS23" t="s"/>
+      <c r="AT23" t="s"/>
+      <c r="AU23" t="s"/>
+      <c r="AV23" t="s"/>
+      <c r="AW23" t="s"/>
+      <c r="AX23" t="s"/>
+      <c r="AY23" t="s"/>
+      <c r="AZ23" t="s"/>
+      <c r="BA23" t="s"/>
+      <c r="BB23" t="s"/>
+      <c r="BC23" t="s"/>
+      <c r="BD23" t="s"/>
+      <c r="BE23" t="s"/>
+      <c r="BF23" t="s"/>
+      <c r="BG23" t="s"/>
+      <c r="BH23" t="s"/>
+      <c r="BI23" t="s"/>
+      <c r="BJ23" t="s"/>
+      <c r="BK23" t="s"/>
+      <c r="BL23" t="s"/>
+      <c r="BM23" t="s"/>
+      <c r="BN23" t="s"/>
+      <c r="BO23" t="s"/>
+      <c r="BP23" t="s"/>
+      <c r="BQ23" t="s"/>
+      <c r="BR23" t="s"/>
+      <c r="BS23" t="s"/>
+      <c r="BT23" t="s"/>
+      <c r="BU23" t="s"/>
+      <c r="BV23" t="s"/>
+      <c r="BW23" t="s"/>
+      <c r="BX23" t="s"/>
+      <c r="BY23" t="s"/>
+      <c r="BZ23" t="s"/>
+      <c r="CA23" t="s"/>
+      <c r="CB23" t="s"/>
+      <c r="CC23" t="s"/>
+      <c r="CD23" t="s"/>
+      <c r="CE23" t="s"/>
+      <c r="CF23" t="s"/>
+      <c r="CG23" t="s"/>
+      <c r="CH23" t="s"/>
+      <c r="CI23" t="s"/>
+      <c r="CJ23" t="s"/>
+      <c r="CK23" t="s"/>
+      <c r="CL23" t="s"/>
+      <c r="CM23" t="s"/>
+      <c r="CN23" t="s"/>
+      <c r="CO23" t="s"/>
+      <c r="CP23" t="s"/>
+      <c r="CQ23" t="s"/>
+      <c r="CR23" t="s"/>
+      <c r="CS23" t="s"/>
+      <c r="CT23" t="s"/>
+      <c r="CU23" t="s"/>
+      <c r="CV23" t="s"/>
+    </row>
+    <row r="24" spans="1:100">
+      <c r="A24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="C24" t="s"/>
+      <c r="D24" t="s"/>
+      <c r="E24" t="s"/>
+      <c r="F24" t="s"/>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s"/>
+      <c r="K24" t="s"/>
+      <c r="L24" t="s"/>
+      <c r="M24" t="s"/>
+      <c r="N24" t="s"/>
+      <c r="O24" t="s"/>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s">
+        <v>81</v>
+      </c>
+      <c r="V24" t="s">
+        <v>81</v>
+      </c>
+      <c r="W24" t="s">
+        <v>81</v>
+      </c>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s"/>
+      <c r="Z24" t="s"/>
+      <c r="AA24" t="s"/>
+      <c r="AB24" t="s"/>
+      <c r="AC24" t="s"/>
+      <c r="AD24" t="s"/>
+      <c r="AE24" t="s"/>
+      <c r="AF24" t="s"/>
+      <c r="AG24" t="s"/>
+      <c r="AH24" t="s"/>
+      <c r="AI24" t="s"/>
+      <c r="AJ24" t="s"/>
+      <c r="AK24" t="s"/>
+      <c r="AL24" t="s"/>
+      <c r="AM24" t="s"/>
+      <c r="AN24" t="s"/>
+      <c r="AO24" t="s"/>
+      <c r="AP24" t="s"/>
+      <c r="AQ24" t="s"/>
+      <c r="AR24" t="s"/>
+      <c r="AS24" t="s"/>
+      <c r="AT24" t="s"/>
+      <c r="AU24" t="s"/>
+      <c r="AV24" t="s"/>
+      <c r="AW24" t="s">
+        <v>81</v>
+      </c>
+      <c r="AX24" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY24" t="s">
+        <v>81</v>
+      </c>
+      <c r="AZ24" t="s"/>
+      <c r="BA24" t="s"/>
+      <c r="BB24" t="s"/>
+      <c r="BC24" t="s"/>
+      <c r="BD24" t="s"/>
+      <c r="BE24" t="s"/>
+      <c r="BF24" t="s"/>
+      <c r="BG24" t="s"/>
+      <c r="BH24" t="s"/>
+      <c r="BI24" t="s"/>
+      <c r="BJ24" t="s"/>
+      <c r="BK24" t="s"/>
+      <c r="BL24" t="s"/>
+      <c r="BM24" t="s"/>
+      <c r="BN24" t="s"/>
+      <c r="BO24" t="s"/>
+      <c r="BP24" t="s"/>
+      <c r="BQ24" t="s"/>
+      <c r="BR24" t="s"/>
+      <c r="BS24" t="s"/>
+      <c r="BT24" t="s"/>
+      <c r="BU24" t="s"/>
+      <c r="BV24" t="s"/>
+      <c r="BW24" t="s"/>
+      <c r="BX24" t="s"/>
+      <c r="BY24" t="s"/>
+      <c r="BZ24" t="s"/>
+      <c r="CA24" t="s"/>
+      <c r="CB24" t="s"/>
+      <c r="CC24" t="s"/>
+      <c r="CD24" t="s"/>
+      <c r="CE24" t="s"/>
+      <c r="CF24" t="s"/>
+      <c r="CG24" t="s"/>
+      <c r="CH24" t="s"/>
+      <c r="CI24" t="s"/>
+      <c r="CJ24" t="s"/>
+      <c r="CK24" t="s"/>
+      <c r="CL24" t="s"/>
+      <c r="CM24" t="s"/>
+      <c r="CN24" t="s"/>
+      <c r="CO24" t="s"/>
+      <c r="CP24" t="s"/>
+      <c r="CQ24" t="s"/>
+      <c r="CR24" t="s"/>
+      <c r="CS24" t="s"/>
+      <c r="CT24" t="s"/>
+      <c r="CU24" t="s"/>
+      <c r="CV24" t="s"/>
+    </row>
+    <row r="25" spans="1:100">
+      <c r="A25" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="C25" t="s"/>
+      <c r="D25" t="s"/>
+      <c r="E25" t="s"/>
+      <c r="F25" t="s"/>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s"/>
+      <c r="K25" t="s"/>
+      <c r="L25" t="s"/>
+      <c r="M25" t="s"/>
+      <c r="N25" t="s"/>
+      <c r="O25" t="s"/>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="s"/>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s"/>
+      <c r="Z25" t="s"/>
+      <c r="AA25" t="s"/>
+      <c r="AB25" t="s"/>
+      <c r="AC25" t="s"/>
+      <c r="AD25" t="s"/>
+      <c r="AE25" t="s"/>
+      <c r="AF25" t="s"/>
+      <c r="AG25" t="s"/>
+      <c r="AH25" t="s"/>
+      <c r="AI25" t="s"/>
+      <c r="AJ25" t="s"/>
+      <c r="AK25" t="s"/>
+      <c r="AL25" t="s"/>
+      <c r="AM25" t="s"/>
+      <c r="AN25" t="s"/>
+      <c r="AO25" t="s"/>
+      <c r="AP25" t="s"/>
+      <c r="AQ25" t="s"/>
+      <c r="AR25" t="s"/>
+      <c r="AS25" t="s"/>
+      <c r="AT25" t="s"/>
+      <c r="AU25" t="s"/>
+      <c r="AV25" t="s"/>
+      <c r="AW25" t="s"/>
+      <c r="AX25" t="s"/>
+      <c r="AY25" t="s"/>
+      <c r="AZ25" t="s"/>
+      <c r="BA25" t="s"/>
+      <c r="BB25" t="s"/>
+      <c r="BC25" t="s"/>
+      <c r="BD25" t="s"/>
+      <c r="BE25" t="s"/>
+      <c r="BF25" t="s"/>
+      <c r="BG25" t="s"/>
+      <c r="BH25" t="s"/>
+      <c r="BI25" t="s"/>
+      <c r="BJ25" t="s"/>
+      <c r="BK25" t="s"/>
+      <c r="BL25" t="s"/>
+      <c r="BM25" t="s"/>
+      <c r="BN25" t="s"/>
+      <c r="BO25" t="s"/>
+      <c r="BP25" t="s"/>
+      <c r="BQ25" t="s"/>
+      <c r="BR25" t="s"/>
+      <c r="BS25" t="s"/>
+      <c r="BT25" t="s"/>
+      <c r="BU25" t="s"/>
+      <c r="BV25" t="s"/>
+      <c r="BW25" t="s"/>
+      <c r="BX25" t="s"/>
+      <c r="BY25" t="s"/>
+      <c r="BZ25" t="s"/>
+      <c r="CA25" t="s"/>
+      <c r="CB25" t="s"/>
+      <c r="CC25" t="s"/>
+      <c r="CD25" t="s"/>
+      <c r="CE25" t="s"/>
+      <c r="CF25" t="s"/>
+      <c r="CG25" t="s"/>
+      <c r="CH25" t="s"/>
+      <c r="CI25" t="s"/>
+      <c r="CJ25" t="s"/>
+      <c r="CK25" t="s"/>
+      <c r="CL25" t="s"/>
+      <c r="CM25" t="s"/>
+      <c r="CN25" t="s"/>
+      <c r="CO25" t="s"/>
+      <c r="CP25" t="s"/>
+      <c r="CQ25" t="s"/>
+      <c r="CR25" t="s"/>
+      <c r="CS25" t="s"/>
+      <c r="CT25" t="s"/>
+      <c r="CU25" t="s"/>
+      <c r="CV25" t="s"/>
+    </row>
+    <row r="26" spans="1:100">
+      <c r="A26" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="C26" t="s"/>
+      <c r="D26" t="s"/>
+      <c r="E26" t="s"/>
+      <c r="F26" t="s"/>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s"/>
+      <c r="K26" t="s"/>
+      <c r="L26" t="s"/>
+      <c r="M26" t="s"/>
+      <c r="N26" t="s"/>
+      <c r="O26" t="s"/>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="s"/>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s"/>
+      <c r="Z26" t="s"/>
+      <c r="AA26" t="s"/>
+      <c r="AB26" t="s"/>
+      <c r="AC26" t="s"/>
+      <c r="AD26" t="s"/>
+      <c r="AE26" t="s"/>
+      <c r="AF26" t="s"/>
+      <c r="AG26" t="s"/>
+      <c r="AH26" t="s"/>
+      <c r="AI26" t="s"/>
+      <c r="AJ26" t="s"/>
+      <c r="AK26" t="s"/>
+      <c r="AL26" t="s"/>
+      <c r="AM26" t="s"/>
+      <c r="AN26" t="s"/>
+      <c r="AO26" t="s"/>
+      <c r="AP26" t="s"/>
+      <c r="AQ26" t="s"/>
+      <c r="AR26" t="s"/>
+      <c r="AS26" t="s"/>
+      <c r="AT26" t="s"/>
+      <c r="AU26" t="s"/>
+      <c r="AV26" t="s"/>
+      <c r="AW26" t="s"/>
+      <c r="AX26" t="s"/>
+      <c r="AY26" t="s"/>
+      <c r="AZ26" t="s"/>
+      <c r="BA26" t="s"/>
+      <c r="BB26" t="s"/>
+      <c r="BC26" t="s"/>
+      <c r="BD26" t="s"/>
+      <c r="BE26" t="s"/>
+      <c r="BF26" t="s"/>
+      <c r="BG26" t="s"/>
+      <c r="BH26" t="s"/>
+      <c r="BI26" t="s"/>
+      <c r="BJ26" t="s"/>
+      <c r="BK26" t="s"/>
+      <c r="BL26" t="s"/>
+      <c r="BM26" t="s"/>
+      <c r="BN26" t="s"/>
+      <c r="BO26" t="s"/>
+      <c r="BP26" t="s"/>
+      <c r="BQ26" t="s"/>
+      <c r="BR26" t="s"/>
+      <c r="BS26" t="s"/>
+      <c r="BT26" t="s"/>
+      <c r="BU26" t="s"/>
+      <c r="BV26" t="s"/>
+      <c r="BW26" t="s"/>
+      <c r="BX26" t="s"/>
+      <c r="BY26" t="s"/>
+      <c r="BZ26" t="s"/>
+      <c r="CA26" t="s"/>
+      <c r="CB26" t="s"/>
+      <c r="CC26" t="s"/>
+      <c r="CD26" t="s"/>
+      <c r="CE26" t="s"/>
+      <c r="CF26" t="s"/>
+      <c r="CG26" t="s"/>
+      <c r="CH26" t="s"/>
+      <c r="CI26" t="s"/>
+      <c r="CJ26" t="s"/>
+      <c r="CK26" t="s"/>
+      <c r="CL26" t="s"/>
+      <c r="CM26" t="s"/>
+      <c r="CN26" t="s"/>
+      <c r="CO26" t="s"/>
+      <c r="CP26" t="s"/>
+      <c r="CQ26" t="s"/>
+      <c r="CR26" t="s"/>
+      <c r="CS26" t="s"/>
+      <c r="CT26" t="s"/>
+      <c r="CU26" t="s"/>
+      <c r="CV26" t="s"/>
+    </row>
+    <row r="27" spans="1:100">
+      <c r="A27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="C27" t="s"/>
+      <c r="D27" t="s"/>
+      <c r="E27" t="s"/>
+      <c r="F27" t="s"/>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s"/>
+      <c r="K27" t="s"/>
+      <c r="L27" t="s"/>
+      <c r="M27" t="s"/>
+      <c r="N27" t="s"/>
+      <c r="O27" t="s"/>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s">
+        <v>84</v>
+      </c>
+      <c r="S27" t="s">
+        <v>84</v>
+      </c>
+      <c r="T27" t="s">
+        <v>84</v>
+      </c>
+      <c r="U27" t="s">
+        <v>84</v>
+      </c>
+      <c r="V27" t="s"/>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s"/>
+      <c r="Z27" t="s"/>
+      <c r="AA27" t="s"/>
+      <c r="AB27" t="s"/>
+      <c r="AC27" t="s"/>
+      <c r="AD27" t="s"/>
+      <c r="AE27" t="s"/>
+      <c r="AF27" t="s"/>
+      <c r="AG27" t="s"/>
+      <c r="AH27" t="s"/>
+      <c r="AI27" t="s"/>
+      <c r="AJ27" t="s"/>
+      <c r="AK27" t="s"/>
+      <c r="AL27" t="s"/>
+      <c r="AM27" t="s"/>
+      <c r="AN27" t="s"/>
+      <c r="AO27" t="s"/>
+      <c r="AP27" t="s"/>
+      <c r="AQ27" t="s"/>
+      <c r="AR27" t="s"/>
+      <c r="AS27" t="s"/>
+      <c r="AT27" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU27" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV27" t="s">
+        <v>84</v>
+      </c>
+      <c r="AW27" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX27" t="s"/>
+      <c r="AY27" t="s"/>
+      <c r="AZ27" t="s"/>
+      <c r="BA27" t="s"/>
+      <c r="BB27" t="s"/>
+      <c r="BC27" t="s"/>
+      <c r="BD27" t="s"/>
+      <c r="BE27" t="s"/>
+      <c r="BF27" t="s"/>
+      <c r="BG27" t="s"/>
+      <c r="BH27" t="s"/>
+      <c r="BI27" t="s"/>
+      <c r="BJ27" t="s"/>
+      <c r="BK27" t="s"/>
+      <c r="BL27" t="s"/>
+      <c r="BM27" t="s"/>
+      <c r="BN27" t="s"/>
+      <c r="BO27" t="s"/>
+      <c r="BP27" t="s"/>
+      <c r="BQ27" t="s"/>
+      <c r="BR27" t="s"/>
+      <c r="BS27" t="s"/>
+      <c r="BT27" t="s"/>
+      <c r="BU27" t="s"/>
+      <c r="BV27" t="s"/>
+      <c r="BW27" t="s"/>
+      <c r="BX27" t="s"/>
+      <c r="BY27" t="s"/>
+      <c r="BZ27" t="s"/>
+      <c r="CA27" t="s"/>
+      <c r="CB27" t="s"/>
+      <c r="CC27" t="s"/>
+      <c r="CD27" t="s"/>
+      <c r="CE27" t="s"/>
+      <c r="CF27" t="s"/>
+      <c r="CG27" t="s"/>
+      <c r="CH27" t="s"/>
+      <c r="CI27" t="s"/>
+      <c r="CJ27" t="s"/>
+      <c r="CK27" t="s"/>
+      <c r="CL27" t="s"/>
+      <c r="CM27" t="s"/>
+      <c r="CN27" t="s"/>
+      <c r="CO27" t="s"/>
+      <c r="CP27" t="s"/>
+      <c r="CQ27" t="s"/>
+      <c r="CR27" t="s"/>
+      <c r="CS27" t="s"/>
+      <c r="CT27" t="s"/>
+      <c r="CU27" t="s"/>
+      <c r="CV27" t="s"/>
+    </row>
+    <row r="28" spans="1:100">
+      <c r="A28" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="C28" t="s"/>
+      <c r="D28" t="s"/>
+      <c r="E28" t="s"/>
+      <c r="F28" t="s"/>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s"/>
+      <c r="K28" t="s"/>
+      <c r="L28" t="s"/>
+      <c r="M28" t="s"/>
+      <c r="N28" t="s"/>
+      <c r="O28" t="s"/>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="s"/>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s"/>
+      <c r="Z28" t="s"/>
+      <c r="AA28" t="s"/>
+      <c r="AB28" t="s"/>
+      <c r="AC28" t="s"/>
+      <c r="AD28" t="s"/>
+      <c r="AE28" t="s"/>
+      <c r="AF28" t="s"/>
+      <c r="AG28" t="s"/>
+      <c r="AH28" t="s"/>
+      <c r="AI28" t="s"/>
+      <c r="AJ28" t="s"/>
+      <c r="AK28" t="s"/>
+      <c r="AL28" t="s"/>
+      <c r="AM28" t="s"/>
+      <c r="AN28" t="s"/>
+      <c r="AO28" t="s"/>
+      <c r="AP28" t="s"/>
+      <c r="AQ28" t="s"/>
+      <c r="AR28" t="s"/>
+      <c r="AS28" t="s"/>
+      <c r="AT28" t="s"/>
+      <c r="AU28" t="s"/>
+      <c r="AV28" t="s"/>
+      <c r="AW28" t="s"/>
+      <c r="AX28" t="s"/>
+      <c r="AY28" t="s"/>
+      <c r="AZ28" t="s"/>
+      <c r="BA28" t="s"/>
+      <c r="BB28" t="s"/>
+      <c r="BC28" t="s"/>
+      <c r="BD28" t="s"/>
+      <c r="BE28" t="s"/>
+      <c r="BF28" t="s"/>
+      <c r="BG28" t="s"/>
+      <c r="BH28" t="s"/>
+      <c r="BI28" t="s"/>
+      <c r="BJ28" t="s"/>
+      <c r="BK28" t="s"/>
+      <c r="BL28" t="s"/>
+      <c r="BM28" t="s"/>
+      <c r="BN28" t="s"/>
+      <c r="BO28" t="s"/>
+      <c r="BP28" t="s"/>
+      <c r="BQ28" t="s"/>
+      <c r="BR28" t="s"/>
+      <c r="BS28" t="s"/>
+      <c r="BT28" t="s"/>
+      <c r="BU28" t="s"/>
+      <c r="BV28" t="s"/>
+      <c r="BW28" t="s"/>
+      <c r="BX28" t="s"/>
+      <c r="BY28" t="s"/>
+      <c r="BZ28" t="s"/>
+      <c r="CA28" t="s"/>
+      <c r="CB28" t="s"/>
+      <c r="CC28" t="s"/>
+      <c r="CD28" t="s"/>
+      <c r="CE28" t="s"/>
+      <c r="CF28" t="s"/>
+      <c r="CG28" t="s"/>
+      <c r="CH28" t="s"/>
+      <c r="CI28" t="s"/>
+      <c r="CJ28" t="s"/>
+      <c r="CK28" t="s"/>
+      <c r="CL28" t="s"/>
+      <c r="CM28" t="s"/>
+      <c r="CN28" t="s"/>
+      <c r="CO28" t="s"/>
+      <c r="CP28" t="s"/>
+      <c r="CQ28" t="s"/>
+      <c r="CR28" t="s"/>
+      <c r="CS28" t="s"/>
+      <c r="CT28" t="s"/>
+      <c r="CU28" t="s"/>
+      <c r="CV28" t="s"/>
+    </row>
+    <row r="29" spans="1:100">
+      <c r="A29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="C29" t="s"/>
+      <c r="D29" t="s"/>
+      <c r="E29" t="s"/>
+      <c r="F29" t="s"/>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s"/>
+      <c r="K29" t="s"/>
+      <c r="L29" t="s"/>
+      <c r="M29" t="s"/>
+      <c r="N29" t="s"/>
+      <c r="O29" t="s"/>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="s"/>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s"/>
+      <c r="Z29" t="s"/>
+      <c r="AA29" t="s"/>
+      <c r="AB29" t="s"/>
+      <c r="AC29" t="s"/>
+      <c r="AD29" t="s"/>
+      <c r="AE29" t="s"/>
+      <c r="AF29" t="s"/>
+      <c r="AG29" t="s"/>
+      <c r="AH29" t="s"/>
+      <c r="AI29" t="s"/>
+      <c r="AJ29" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM29" t="s">
+        <v>86</v>
+      </c>
+      <c r="AN29" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO29" t="s">
+        <v>86</v>
+      </c>
+      <c r="AP29" t="s"/>
+      <c r="AQ29" t="s"/>
+      <c r="AR29" t="s"/>
+      <c r="AS29" t="s"/>
+      <c r="AT29" t="s"/>
+      <c r="AU29" t="s"/>
+      <c r="AV29" t="s"/>
+      <c r="AW29" t="s"/>
+      <c r="AX29" t="s"/>
+      <c r="AY29" t="s"/>
+      <c r="AZ29" t="s"/>
+      <c r="BA29" t="s"/>
+      <c r="BB29" t="s"/>
+      <c r="BC29" t="s"/>
+      <c r="BD29" t="s"/>
+      <c r="BE29" t="s"/>
+      <c r="BF29" t="s"/>
+      <c r="BG29" t="s"/>
+      <c r="BH29" t="s"/>
+      <c r="BI29" t="s"/>
+      <c r="BJ29" t="s"/>
+      <c r="BK29" t="s"/>
+      <c r="BL29" t="s"/>
+      <c r="BM29" t="s"/>
+      <c r="BN29" t="s"/>
+      <c r="BO29" t="s"/>
+      <c r="BP29" t="s"/>
+      <c r="BQ29" t="s"/>
+      <c r="BR29" t="s"/>
+      <c r="BS29" t="s"/>
+      <c r="BT29" t="s"/>
+      <c r="BU29" t="s"/>
+      <c r="BV29" t="s"/>
+      <c r="BW29" t="s"/>
+      <c r="BX29" t="s"/>
+      <c r="BY29" t="s"/>
+      <c r="BZ29" t="s"/>
+      <c r="CA29" t="s"/>
+      <c r="CB29" t="s"/>
+      <c r="CC29" t="s"/>
+      <c r="CD29" t="s"/>
+      <c r="CE29" t="s"/>
+      <c r="CF29" t="s"/>
+      <c r="CG29" t="s"/>
+      <c r="CH29" t="s"/>
+      <c r="CI29" t="s"/>
+      <c r="CJ29" t="s"/>
+      <c r="CK29" t="s"/>
+      <c r="CL29" t="s"/>
+      <c r="CM29" t="s"/>
+      <c r="CN29" t="s"/>
+      <c r="CO29" t="s"/>
+      <c r="CP29" t="s"/>
+      <c r="CQ29" t="s"/>
+      <c r="CR29" t="s"/>
+      <c r="CS29" t="s"/>
+      <c r="CT29" t="s"/>
+      <c r="CU29" t="s"/>
+      <c r="CV29" t="s"/>
+    </row>
+    <row r="30" spans="1:100">
+      <c r="A30" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="C30" t="s"/>
+      <c r="D30" t="s"/>
+      <c r="E30" t="s"/>
+      <c r="F30" t="s"/>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s"/>
+      <c r="K30" t="s"/>
+      <c r="L30" t="s"/>
+      <c r="M30" t="s"/>
+      <c r="N30" t="s"/>
+      <c r="O30" t="s"/>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="s"/>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s"/>
+      <c r="Z30" t="s"/>
+      <c r="AA30" t="s"/>
+      <c r="AB30" t="s"/>
+      <c r="AC30" t="s"/>
+      <c r="AD30" t="s"/>
+      <c r="AE30" t="s"/>
+      <c r="AF30" t="s"/>
+      <c r="AG30" t="s"/>
+      <c r="AH30" t="s"/>
+      <c r="AI30" t="s"/>
+      <c r="AJ30" t="s"/>
+      <c r="AK30" t="s"/>
+      <c r="AL30" t="s"/>
+      <c r="AM30" t="s"/>
+      <c r="AN30" t="s"/>
+      <c r="AO30" t="s"/>
+      <c r="AP30" t="s"/>
+      <c r="AQ30" t="s"/>
+      <c r="AR30" t="s"/>
+      <c r="AS30" t="s"/>
+      <c r="AT30" t="s"/>
+      <c r="AU30" t="s"/>
+      <c r="AV30" t="s"/>
+      <c r="AW30" t="s"/>
+      <c r="AX30" t="s"/>
+      <c r="AY30" t="s"/>
+      <c r="AZ30" t="s"/>
+      <c r="BA30" t="s"/>
+      <c r="BB30" t="s"/>
+      <c r="BC30" t="s"/>
+      <c r="BD30" t="s"/>
+      <c r="BE30" t="s"/>
+      <c r="BF30" t="s"/>
+      <c r="BG30" t="s"/>
+      <c r="BH30" t="s"/>
+      <c r="BI30" t="s"/>
+      <c r="BJ30" t="s"/>
+      <c r="BK30" t="s"/>
+      <c r="BL30" t="s"/>
+      <c r="BM30" t="s"/>
+      <c r="BN30" t="s"/>
+      <c r="BO30" t="s"/>
+      <c r="BP30" t="s"/>
+      <c r="BQ30" t="s"/>
+      <c r="BR30" t="s"/>
+      <c r="BS30" t="s"/>
+      <c r="BT30" t="s"/>
+      <c r="BU30" t="s"/>
+      <c r="BV30" t="s"/>
+      <c r="BW30" t="s"/>
+      <c r="BX30" t="s"/>
+      <c r="BY30" t="s"/>
+      <c r="BZ30" t="s"/>
+      <c r="CA30" t="s"/>
+      <c r="CB30" t="s"/>
+      <c r="CC30" t="s"/>
+      <c r="CD30" t="s"/>
+      <c r="CE30" t="s"/>
+      <c r="CF30" t="s"/>
+      <c r="CG30" t="s"/>
+      <c r="CH30" t="s"/>
+      <c r="CI30" t="s"/>
+      <c r="CJ30" t="s"/>
+      <c r="CK30" t="s"/>
+      <c r="CL30" t="s"/>
+      <c r="CM30" t="s"/>
+      <c r="CN30" t="s"/>
+      <c r="CO30" t="s"/>
+      <c r="CP30" t="s"/>
+      <c r="CQ30" t="s"/>
+      <c r="CR30" t="s"/>
+      <c r="CS30" t="s"/>
+      <c r="CT30" t="s"/>
+      <c r="CU30" t="s"/>
+      <c r="CV30" t="s"/>
+    </row>
+    <row r="31" spans="1:100">
+      <c r="A31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="C31" t="s"/>
+      <c r="D31" t="s"/>
+      <c r="E31" t="s"/>
+      <c r="F31" t="s"/>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s"/>
+      <c r="K31" t="s"/>
+      <c r="L31" t="s"/>
+      <c r="M31" t="s"/>
+      <c r="N31" t="s">
+        <v>88</v>
+      </c>
+      <c r="O31" t="s">
+        <v>88</v>
+      </c>
+      <c r="P31" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="s"/>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s"/>
+      <c r="Z31" t="s"/>
+      <c r="AA31" t="s"/>
+      <c r="AB31" t="s"/>
+      <c r="AC31" t="s"/>
+      <c r="AD31" t="s"/>
+      <c r="AE31" t="s"/>
+      <c r="AF31" t="s"/>
+      <c r="AG31" t="s"/>
+      <c r="AH31" t="s"/>
+      <c r="AI31" t="s"/>
+      <c r="AJ31" t="s"/>
+      <c r="AK31" t="s"/>
+      <c r="AL31" t="s"/>
+      <c r="AM31" t="s"/>
+      <c r="AN31" t="s"/>
+      <c r="AO31" t="s"/>
+      <c r="AP31" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ31" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR31" t="s">
+        <v>88</v>
+      </c>
+      <c r="AS31" t="s"/>
+      <c r="AT31" t="s"/>
+      <c r="AU31" t="s"/>
+      <c r="AV31" t="s"/>
+      <c r="AW31" t="s"/>
+      <c r="AX31" t="s"/>
+      <c r="AY31" t="s"/>
+      <c r="AZ31" t="s"/>
+      <c r="BA31" t="s"/>
+      <c r="BB31" t="s"/>
+      <c r="BC31" t="s"/>
+      <c r="BD31" t="s"/>
+      <c r="BE31" t="s"/>
+      <c r="BF31" t="s"/>
+      <c r="BG31" t="s"/>
+      <c r="BH31" t="s"/>
+      <c r="BI31" t="s"/>
+      <c r="BJ31" t="s"/>
+      <c r="BK31" t="s"/>
+      <c r="BL31" t="s"/>
+      <c r="BM31" t="s"/>
+      <c r="BN31" t="s"/>
+      <c r="BO31" t="s"/>
+      <c r="BP31" t="s"/>
+      <c r="BQ31" t="s"/>
+      <c r="BR31" t="s"/>
+      <c r="BS31" t="s"/>
+      <c r="BT31" t="s"/>
+      <c r="BU31" t="s"/>
+      <c r="BV31" t="s"/>
+      <c r="BW31" t="s"/>
+      <c r="BX31" t="s"/>
+      <c r="BY31" t="s"/>
+      <c r="BZ31" t="s"/>
+      <c r="CA31" t="s"/>
+      <c r="CB31" t="s"/>
+      <c r="CC31" t="s"/>
+      <c r="CD31" t="s"/>
+      <c r="CE31" t="s"/>
+      <c r="CF31" t="s"/>
+      <c r="CG31" t="s"/>
+      <c r="CH31" t="s"/>
+      <c r="CI31" t="s"/>
+      <c r="CJ31" t="s"/>
+      <c r="CK31" t="s"/>
+      <c r="CL31" t="s"/>
+      <c r="CM31" t="s"/>
+      <c r="CN31" t="s"/>
+      <c r="CO31" t="s"/>
+      <c r="CP31" t="s"/>
+      <c r="CQ31" t="s"/>
+      <c r="CR31" t="s"/>
+      <c r="CS31" t="s"/>
+      <c r="CT31" t="s"/>
+      <c r="CU31" t="s"/>
+      <c r="CV31" t="s"/>
+    </row>
+    <row r="32" spans="1:100">
+      <c r="A32" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="C32" t="s"/>
+      <c r="D32" t="s"/>
+      <c r="E32" t="s"/>
+      <c r="F32" t="s"/>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s"/>
+      <c r="K32" t="s"/>
+      <c r="L32" t="s"/>
+      <c r="M32" t="s"/>
+      <c r="N32" t="s"/>
+      <c r="O32" t="s"/>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="s"/>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s"/>
+      <c r="Z32" t="s"/>
+      <c r="AA32" t="s"/>
+      <c r="AB32" t="s"/>
+      <c r="AC32" t="s"/>
+      <c r="AD32" t="s"/>
+      <c r="AE32" t="s"/>
+      <c r="AF32" t="s"/>
+      <c r="AG32" t="s"/>
+      <c r="AH32" t="s"/>
+      <c r="AI32" t="s"/>
+      <c r="AJ32" t="s"/>
+      <c r="AK32" t="s"/>
+      <c r="AL32" t="s"/>
+      <c r="AM32" t="s"/>
+      <c r="AN32" t="s"/>
+      <c r="AO32" t="s"/>
+      <c r="AP32" t="s"/>
+      <c r="AQ32" t="s"/>
+      <c r="AR32" t="s"/>
+      <c r="AS32" t="s"/>
+      <c r="AT32" t="s"/>
+      <c r="AU32" t="s"/>
+      <c r="AV32" t="s"/>
+      <c r="AW32" t="s"/>
+      <c r="AX32" t="s"/>
+      <c r="AY32" t="s"/>
+      <c r="AZ32" t="s"/>
+      <c r="BA32" t="s"/>
+      <c r="BB32" t="s"/>
+      <c r="BC32" t="s"/>
+      <c r="BD32" t="s"/>
+      <c r="BE32" t="s"/>
+      <c r="BF32" t="s"/>
+      <c r="BG32" t="s"/>
+      <c r="BH32" t="s"/>
+      <c r="BI32" t="s"/>
+      <c r="BJ32" t="s"/>
+      <c r="BK32" t="s"/>
+      <c r="BL32" t="s"/>
+      <c r="BM32" t="s"/>
+      <c r="BN32" t="s"/>
+      <c r="BO32" t="s"/>
+      <c r="BP32" t="s"/>
+      <c r="BQ32" t="s"/>
+      <c r="BR32" t="s"/>
+      <c r="BS32" t="s"/>
+      <c r="BT32" t="s"/>
+      <c r="BU32" t="s"/>
+      <c r="BV32" t="s"/>
+      <c r="BW32" t="s"/>
+      <c r="BX32" t="s"/>
+      <c r="BY32" t="s"/>
+      <c r="BZ32" t="s"/>
+      <c r="CA32" t="s"/>
+      <c r="CB32" t="s"/>
+      <c r="CC32" t="s"/>
+      <c r="CD32" t="s"/>
+      <c r="CE32" t="s"/>
+      <c r="CF32" t="s"/>
+      <c r="CG32" t="s"/>
+      <c r="CH32" t="s"/>
+      <c r="CI32" t="s"/>
+      <c r="CJ32" t="s"/>
+      <c r="CK32" t="s"/>
+      <c r="CL32" t="s"/>
+      <c r="CM32" t="s"/>
+      <c r="CN32" t="s"/>
+      <c r="CO32" t="s"/>
+      <c r="CP32" t="s"/>
+      <c r="CQ32" t="s"/>
+      <c r="CR32" t="s"/>
+      <c r="CS32" t="s"/>
+      <c r="CT32" t="s"/>
+      <c r="CU32" t="s"/>
+      <c r="CV32" t="s"/>
+    </row>
+    <row r="33" spans="1:100">
+      <c r="A33" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="C33" t="s"/>
+      <c r="D33" t="s"/>
+      <c r="E33" t="s"/>
+      <c r="F33" t="s"/>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s"/>
+      <c r="K33" t="s"/>
+      <c r="L33" t="s"/>
+      <c r="M33" t="s"/>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="s"/>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s"/>
+      <c r="Z33" t="s"/>
+      <c r="AA33" t="s"/>
+      <c r="AB33" t="s"/>
+      <c r="AC33" t="s"/>
+      <c r="AD33" t="s"/>
+      <c r="AE33" t="s"/>
+      <c r="AF33" t="s"/>
+      <c r="AG33" t="s"/>
+      <c r="AH33" t="s"/>
+      <c r="AI33" t="s"/>
+      <c r="AJ33" t="s"/>
+      <c r="AK33" t="s"/>
+      <c r="AL33" t="s"/>
+      <c r="AM33" t="s"/>
+      <c r="AN33" t="s"/>
+      <c r="AO33" t="s"/>
+      <c r="AP33" t="s"/>
+      <c r="AQ33" t="s"/>
+      <c r="AR33" t="s"/>
+      <c r="AS33" t="s"/>
+      <c r="AT33" t="s"/>
+      <c r="AU33" t="s"/>
+      <c r="AV33" t="s"/>
+      <c r="AW33" t="s"/>
+      <c r="AX33" t="s"/>
+      <c r="AY33" t="s"/>
+      <c r="AZ33" t="s"/>
+      <c r="BA33" t="s"/>
+      <c r="BB33" t="s"/>
+      <c r="BC33" t="s"/>
+      <c r="BD33" t="s"/>
+      <c r="BE33" t="s"/>
+      <c r="BF33" t="s"/>
+      <c r="BG33" t="s"/>
+      <c r="BH33" t="s"/>
+      <c r="BI33" t="s"/>
+      <c r="BJ33" t="s"/>
+      <c r="BK33" t="s"/>
+      <c r="BL33" t="s"/>
+      <c r="BM33" t="s"/>
+      <c r="BN33" t="s"/>
+      <c r="BO33" t="s"/>
+      <c r="BP33" t="s"/>
+      <c r="BQ33" t="s"/>
+      <c r="BR33" t="s"/>
+      <c r="BS33" t="s"/>
+      <c r="BT33" t="s"/>
+      <c r="BU33" t="s"/>
+      <c r="BV33" t="s"/>
+      <c r="BW33" t="s"/>
+      <c r="BX33" t="s"/>
+      <c r="BY33" t="s"/>
+      <c r="BZ33" t="s"/>
+      <c r="CA33" t="s"/>
+      <c r="CB33" t="s"/>
+      <c r="CC33" t="s"/>
+      <c r="CD33" t="s"/>
+      <c r="CE33" t="s"/>
+      <c r="CF33" t="s"/>
+      <c r="CG33" t="s"/>
+      <c r="CH33" t="s"/>
+      <c r="CI33" t="s"/>
+      <c r="CJ33" t="s"/>
+      <c r="CK33" t="s"/>
+      <c r="CL33" t="s"/>
+      <c r="CM33" t="s"/>
+      <c r="CN33" t="s"/>
+      <c r="CO33" t="s"/>
+      <c r="CP33" t="s"/>
+      <c r="CQ33" t="s"/>
+      <c r="CR33" t="s"/>
+      <c r="CS33" t="s"/>
+      <c r="CT33" t="s"/>
+      <c r="CU33" t="s"/>
+      <c r="CV33" t="s"/>
+    </row>
+    <row r="34" spans="1:100">
+      <c r="A34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="C34" t="s"/>
+      <c r="D34" t="s">
+        <v>91</v>
+      </c>
+      <c r="E34" t="s">
+        <v>91</v>
+      </c>
+      <c r="F34" t="s">
+        <v>91</v>
+      </c>
+      <c r="G34" t="s">
+        <v>91</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s"/>
+      <c r="K34" t="s"/>
+      <c r="L34" t="s"/>
+      <c r="M34" t="s"/>
+      <c r="N34" t="s"/>
+      <c r="O34" t="s"/>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="s"/>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s"/>
+      <c r="Z34" t="s"/>
+      <c r="AA34" t="s"/>
+      <c r="AB34" t="s"/>
+      <c r="AC34" t="s"/>
+      <c r="AD34" t="s"/>
+      <c r="AE34" t="s"/>
+      <c r="AF34" t="s"/>
+      <c r="AG34" t="s"/>
+      <c r="AH34" t="s"/>
+      <c r="AI34" t="s"/>
+      <c r="AJ34" t="s"/>
+      <c r="AK34" t="s"/>
+      <c r="AL34" t="s"/>
+      <c r="AM34" t="s"/>
+      <c r="AN34" t="s"/>
+      <c r="AO34" t="s"/>
+      <c r="AP34" t="s"/>
+      <c r="AQ34" t="s"/>
+      <c r="AR34" t="s"/>
+      <c r="AS34" t="s"/>
+      <c r="AT34" t="s"/>
+      <c r="AU34" t="s"/>
+      <c r="AV34" t="s"/>
+      <c r="AW34" t="s"/>
+      <c r="AX34" t="s"/>
+      <c r="AY34" t="s"/>
+      <c r="AZ34" t="s"/>
+      <c r="BA34" t="s"/>
+      <c r="BB34" t="s"/>
+      <c r="BC34" t="s"/>
+      <c r="BD34" t="s"/>
+      <c r="BE34" t="s"/>
+      <c r="BF34" t="s"/>
+      <c r="BG34" t="s"/>
+      <c r="BH34" t="s"/>
+      <c r="BI34" t="s"/>
+      <c r="BJ34" t="s"/>
+      <c r="BK34" t="s"/>
+      <c r="BL34" t="s"/>
+      <c r="BM34" t="s"/>
+      <c r="BN34" t="s"/>
+      <c r="BO34" t="s"/>
+      <c r="BP34" t="s"/>
+      <c r="BQ34" t="s"/>
+      <c r="BR34" t="s"/>
+      <c r="BS34" t="s"/>
+      <c r="BT34" t="s"/>
+      <c r="BU34" t="s"/>
+      <c r="BV34" t="s"/>
+      <c r="BW34" t="s"/>
+      <c r="BX34" t="s"/>
+      <c r="BY34" t="s"/>
+      <c r="BZ34" t="s"/>
+      <c r="CA34" t="s"/>
+      <c r="CB34" t="s"/>
+      <c r="CC34" t="s"/>
+      <c r="CD34" t="s"/>
+      <c r="CE34" t="s"/>
+      <c r="CF34" t="s"/>
+      <c r="CG34" t="s"/>
+      <c r="CH34" t="s"/>
+      <c r="CI34" t="s"/>
+      <c r="CJ34" t="s"/>
+      <c r="CK34" t="s"/>
+      <c r="CL34" t="s"/>
+      <c r="CM34" t="s"/>
+      <c r="CN34" t="s"/>
+      <c r="CO34" t="s"/>
+      <c r="CP34" t="s"/>
+      <c r="CQ34" t="s"/>
+      <c r="CR34" t="s"/>
+      <c r="CS34" t="s"/>
+      <c r="CT34" t="s"/>
+      <c r="CU34" t="s"/>
+      <c r="CV34" t="s"/>
+    </row>
+    <row r="35" spans="1:100">
+      <c r="A35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="C35" t="s"/>
+      <c r="D35" t="s"/>
+      <c r="E35" t="s"/>
+      <c r="F35" t="s"/>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s"/>
+      <c r="K35" t="s"/>
+      <c r="L35" t="s"/>
+      <c r="M35" t="s"/>
+      <c r="N35" t="s"/>
+      <c r="O35" t="s"/>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="s"/>
+      <c r="W35" t="s">
+        <v>92</v>
+      </c>
+      <c r="X35" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z35" t="s"/>
+      <c r="AA35" t="s"/>
+      <c r="AB35" t="s"/>
+      <c r="AC35" t="s"/>
+      <c r="AD35" t="s"/>
+      <c r="AE35" t="s"/>
+      <c r="AF35" t="s"/>
+      <c r="AG35" t="s"/>
+      <c r="AH35" t="s"/>
+      <c r="AI35" t="s"/>
+      <c r="AJ35" t="s"/>
+      <c r="AK35" t="s"/>
+      <c r="AL35" t="s"/>
+      <c r="AM35" t="s"/>
+      <c r="AN35" t="s"/>
+      <c r="AO35" t="s"/>
+      <c r="AP35" t="s"/>
+      <c r="AQ35" t="s"/>
+      <c r="AR35" t="s"/>
+      <c r="AS35" t="s"/>
+      <c r="AT35" t="s"/>
+      <c r="AU35" t="s"/>
+      <c r="AV35" t="s"/>
+      <c r="AW35" t="s"/>
+      <c r="AX35" t="s"/>
+      <c r="AY35" t="s">
+        <v>92</v>
+      </c>
+      <c r="AZ35" t="s">
+        <v>92</v>
+      </c>
+      <c r="BA35" t="s">
+        <v>92</v>
+      </c>
+      <c r="BB35" t="s"/>
+      <c r="BC35" t="s"/>
+      <c r="BD35" t="s"/>
+      <c r="BE35" t="s"/>
+      <c r="BF35" t="s"/>
+      <c r="BG35" t="s"/>
+      <c r="BH35" t="s"/>
+      <c r="BI35" t="s"/>
+      <c r="BJ35" t="s"/>
+      <c r="BK35" t="s"/>
+      <c r="BL35" t="s"/>
+      <c r="BM35" t="s"/>
+      <c r="BN35" t="s"/>
+      <c r="BO35" t="s"/>
+      <c r="BP35" t="s"/>
+      <c r="BQ35" t="s"/>
+      <c r="BR35" t="s"/>
+      <c r="BS35" t="s"/>
+      <c r="BT35" t="s"/>
+      <c r="BU35" t="s"/>
+      <c r="BV35" t="s"/>
+      <c r="BW35" t="s"/>
+      <c r="BX35" t="s"/>
+      <c r="BY35" t="s"/>
+      <c r="BZ35" t="s"/>
+      <c r="CA35" t="s"/>
+      <c r="CB35" t="s"/>
+      <c r="CC35" t="s"/>
+      <c r="CD35" t="s"/>
+      <c r="CE35" t="s"/>
+      <c r="CF35" t="s"/>
+      <c r="CG35" t="s"/>
+      <c r="CH35" t="s"/>
+      <c r="CI35" t="s"/>
+      <c r="CJ35" t="s"/>
+      <c r="CK35" t="s"/>
+      <c r="CL35" t="s"/>
+      <c r="CM35" t="s"/>
+      <c r="CN35" t="s"/>
+      <c r="CO35" t="s"/>
+      <c r="CP35" t="s"/>
+      <c r="CQ35" t="s"/>
+      <c r="CR35" t="s"/>
+      <c r="CS35" t="s"/>
+      <c r="CT35" t="s"/>
+      <c r="CU35" t="s"/>
+      <c r="CV35" t="s"/>
+    </row>
+    <row r="36" spans="1:100">
+      <c r="A36" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="C36" t="s"/>
+      <c r="D36" t="s"/>
+      <c r="E36" t="s"/>
+      <c r="F36" t="s"/>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s"/>
+      <c r="K36" t="s"/>
+      <c r="L36" t="s"/>
+      <c r="M36" t="s"/>
+      <c r="N36" t="s"/>
+      <c r="O36" t="s"/>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="s"/>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s"/>
+      <c r="Z36" t="s"/>
+      <c r="AA36" t="s"/>
+      <c r="AB36" t="s"/>
+      <c r="AC36" t="s"/>
+      <c r="AD36" t="s"/>
+      <c r="AE36" t="s"/>
+      <c r="AF36" t="s"/>
+      <c r="AG36" t="s"/>
+      <c r="AH36" t="s"/>
+      <c r="AI36" t="s"/>
+      <c r="AJ36" t="s"/>
+      <c r="AK36" t="s"/>
+      <c r="AL36" t="s"/>
+      <c r="AM36" t="s"/>
+      <c r="AN36" t="s"/>
+      <c r="AO36" t="s"/>
+      <c r="AP36" t="s"/>
+      <c r="AQ36" t="s"/>
+      <c r="AR36" t="s"/>
+      <c r="AS36" t="s"/>
+      <c r="AT36" t="s"/>
+      <c r="AU36" t="s"/>
+      <c r="AV36" t="s"/>
+      <c r="AW36" t="s"/>
+      <c r="AX36" t="s"/>
+      <c r="AY36" t="s"/>
+      <c r="AZ36" t="s"/>
+      <c r="BA36" t="s"/>
+      <c r="BB36" t="s"/>
+      <c r="BC36" t="s"/>
+      <c r="BD36" t="s"/>
+      <c r="BE36" t="s"/>
+      <c r="BF36" t="s"/>
+      <c r="BG36" t="s"/>
+      <c r="BH36" t="s"/>
+      <c r="BI36" t="s"/>
+      <c r="BJ36" t="s"/>
+      <c r="BK36" t="s"/>
+      <c r="BL36" t="s"/>
+      <c r="BM36" t="s"/>
+      <c r="BN36" t="s"/>
+      <c r="BO36" t="s"/>
+      <c r="BP36" t="s"/>
+      <c r="BQ36" t="s"/>
+      <c r="BR36" t="s"/>
+      <c r="BS36" t="s"/>
+      <c r="BT36" t="s"/>
+      <c r="BU36" t="s"/>
+      <c r="BV36" t="s"/>
+      <c r="BW36" t="s"/>
+      <c r="BX36" t="s"/>
+      <c r="BY36" t="s"/>
+      <c r="BZ36" t="s"/>
+      <c r="CA36" t="s"/>
+      <c r="CB36" t="s"/>
+      <c r="CC36" t="s"/>
+      <c r="CD36" t="s"/>
+      <c r="CE36" t="s"/>
+      <c r="CF36" t="s"/>
+      <c r="CG36" t="s"/>
+      <c r="CH36" t="s"/>
+      <c r="CI36" t="s"/>
+      <c r="CJ36" t="s"/>
+      <c r="CK36" t="s"/>
+      <c r="CL36" t="s"/>
+      <c r="CM36" t="s"/>
+      <c r="CN36" t="s"/>
+      <c r="CO36" t="s"/>
+      <c r="CP36" t="s"/>
+      <c r="CQ36" t="s"/>
+      <c r="CR36" t="s"/>
+      <c r="CS36" t="s"/>
+      <c r="CT36" t="s"/>
+      <c r="CU36" t="s"/>
+      <c r="CV36" t="s"/>
+    </row>
+    <row r="37" spans="1:100">
+      <c r="A37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" t="s">
+        <v>94</v>
+      </c>
+      <c r="E37" t="s">
+        <v>94</v>
+      </c>
+      <c r="F37" t="s">
+        <v>94</v>
+      </c>
+      <c r="G37" t="s">
+        <v>94</v>
+      </c>
+      <c r="H37" t="s">
+        <v>94</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s"/>
+      <c r="K37" t="s"/>
+      <c r="L37" t="s"/>
+      <c r="M37" t="s"/>
+      <c r="N37" t="s"/>
+      <c r="O37" t="s"/>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="s"/>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s"/>
+      <c r="Z37" t="s"/>
+      <c r="AA37" t="s"/>
+      <c r="AB37" t="s"/>
+      <c r="AC37" t="s"/>
+      <c r="AD37" t="s"/>
+      <c r="AE37" t="s"/>
+      <c r="AF37" t="s"/>
+      <c r="AG37" t="s"/>
+      <c r="AH37" t="s"/>
+      <c r="AI37" t="s"/>
+      <c r="AJ37" t="s"/>
+      <c r="AK37" t="s"/>
+      <c r="AL37" t="s"/>
+      <c r="AM37" t="s"/>
+      <c r="AN37" t="s"/>
+      <c r="AO37" t="s"/>
+      <c r="AP37" t="s"/>
+      <c r="AQ37" t="s"/>
+      <c r="AR37" t="s"/>
+      <c r="AS37" t="s">
+        <v>95</v>
+      </c>
+      <c r="AT37" t="s">
+        <v>95</v>
+      </c>
+      <c r="AU37" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV37" t="s">
+        <v>95</v>
+      </c>
+      <c r="AW37" t="s">
+        <v>95</v>
+      </c>
+      <c r="AX37" t="s">
+        <v>95</v>
+      </c>
+      <c r="AY37" t="s"/>
+      <c r="AZ37" t="s"/>
+      <c r="BA37" t="s"/>
+      <c r="BB37" t="s"/>
+      <c r="BC37" t="s"/>
+      <c r="BD37" t="s"/>
+      <c r="BE37" t="s"/>
+      <c r="BF37" t="s"/>
+      <c r="BG37" t="s"/>
+      <c r="BH37" t="s"/>
+      <c r="BI37" t="s"/>
+      <c r="BJ37" t="s"/>
+      <c r="BK37" t="s"/>
+      <c r="BL37" t="s"/>
+      <c r="BM37" t="s"/>
+      <c r="BN37" t="s"/>
+      <c r="BO37" t="s"/>
+      <c r="BP37" t="s"/>
+      <c r="BQ37" t="s"/>
+      <c r="BR37" t="s"/>
+      <c r="BS37" t="s"/>
+      <c r="BT37" t="s"/>
+      <c r="BU37" t="s"/>
+      <c r="BV37" t="s"/>
+      <c r="BW37" t="s"/>
+      <c r="BX37" t="s"/>
+      <c r="BY37" t="s"/>
+      <c r="BZ37" t="s"/>
+      <c r="CA37" t="s"/>
+      <c r="CB37" t="s"/>
+      <c r="CC37" t="s"/>
+      <c r="CD37" t="s"/>
+      <c r="CE37" t="s"/>
+      <c r="CF37" t="s"/>
+      <c r="CG37" t="s"/>
+      <c r="CH37" t="s"/>
+      <c r="CI37" t="s"/>
+      <c r="CJ37" t="s"/>
+      <c r="CK37" t="s"/>
+      <c r="CL37" t="s"/>
+      <c r="CM37" t="s"/>
+      <c r="CN37" t="s"/>
+      <c r="CO37" t="s"/>
+      <c r="CP37" t="s"/>
+      <c r="CQ37" t="s"/>
+      <c r="CR37" t="s"/>
+      <c r="CS37" t="s"/>
+      <c r="CT37" t="s"/>
+      <c r="CU37" t="s"/>
+      <c r="CV37" t="s"/>
+    </row>
+    <row r="38" spans="1:100">
+      <c r="A38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="C38" t="s"/>
+      <c r="D38" t="s"/>
+      <c r="E38" t="s">
+        <v>96</v>
+      </c>
+      <c r="F38" t="s">
+        <v>96</v>
+      </c>
+      <c r="G38" t="s">
+        <v>96</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s"/>
+      <c r="K38" t="s"/>
+      <c r="L38" t="s"/>
+      <c r="M38" t="s"/>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="s"/>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s"/>
+      <c r="Z38" t="s"/>
+      <c r="AA38" t="s"/>
+      <c r="AB38" t="s"/>
+      <c r="AC38" t="s"/>
+      <c r="AD38" t="s"/>
+      <c r="AE38" t="s"/>
+      <c r="AF38" t="s"/>
+      <c r="AG38" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI38" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ38" t="s"/>
+      <c r="AK38" t="s"/>
+      <c r="AL38" t="s"/>
+      <c r="AM38" t="s"/>
+      <c r="AN38" t="s"/>
+      <c r="AO38" t="s"/>
+      <c r="AP38" t="s"/>
+      <c r="AQ38" t="s"/>
+      <c r="AR38" t="s"/>
+      <c r="AS38" t="s"/>
+      <c r="AT38" t="s"/>
+      <c r="AU38" t="s"/>
+      <c r="AV38" t="s"/>
+      <c r="AW38" t="s"/>
+      <c r="AX38" t="s"/>
+      <c r="AY38" t="s"/>
+      <c r="AZ38" t="s"/>
+      <c r="BA38" t="s"/>
+      <c r="BB38" t="s"/>
+      <c r="BC38" t="s"/>
+      <c r="BD38" t="s"/>
+      <c r="BE38" t="s"/>
+      <c r="BF38" t="s"/>
+      <c r="BG38" t="s"/>
+      <c r="BH38" t="s"/>
+      <c r="BI38" t="s"/>
+      <c r="BJ38" t="s"/>
+      <c r="BK38" t="s"/>
+      <c r="BL38" t="s"/>
+      <c r="BM38" t="s"/>
+      <c r="BN38" t="s"/>
+      <c r="BO38" t="s"/>
+      <c r="BP38" t="s"/>
+      <c r="BQ38" t="s"/>
+      <c r="BR38" t="s"/>
+      <c r="BS38" t="s"/>
+      <c r="BT38" t="s"/>
+      <c r="BU38" t="s"/>
+      <c r="BV38" t="s"/>
+      <c r="BW38" t="s"/>
+      <c r="BX38" t="s"/>
+      <c r="BY38" t="s"/>
+      <c r="BZ38" t="s"/>
+      <c r="CA38" t="s"/>
+      <c r="CB38" t="s"/>
+      <c r="CC38" t="s"/>
+      <c r="CD38" t="s"/>
+      <c r="CE38" t="s"/>
+      <c r="CF38" t="s"/>
+      <c r="CG38" t="s"/>
+      <c r="CH38" t="s"/>
+      <c r="CI38" t="s"/>
+      <c r="CJ38" t="s"/>
+      <c r="CK38" t="s"/>
+      <c r="CL38" t="s"/>
+      <c r="CM38" t="s"/>
+      <c r="CN38" t="s"/>
+      <c r="CO38" t="s"/>
+      <c r="CP38" t="s"/>
+      <c r="CQ38" t="s"/>
+      <c r="CR38" t="s"/>
+      <c r="CS38" t="s"/>
+      <c r="CT38" t="s"/>
+      <c r="CU38" t="s"/>
+      <c r="CV38" t="s"/>
+    </row>
+    <row r="39" spans="1:100">
+      <c r="A39" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B39" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="C39" t="s"/>
+      <c r="D39" t="s"/>
+      <c r="E39" t="s"/>
+      <c r="F39" t="s"/>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s"/>
+      <c r="K39" t="s"/>
+      <c r="L39" t="s"/>
+      <c r="M39" t="s"/>
+      <c r="N39" t="s"/>
+      <c r="O39" t="s"/>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="s"/>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s"/>
+      <c r="Z39" t="s"/>
+      <c r="AA39" t="s"/>
+      <c r="AB39" t="s"/>
+      <c r="AC39" t="s"/>
+      <c r="AD39" t="s"/>
+      <c r="AE39" t="s"/>
+      <c r="AF39" t="s"/>
+      <c r="AG39" t="s"/>
+      <c r="AH39" t="s"/>
+      <c r="AI39" t="s"/>
+      <c r="AJ39" t="s"/>
+      <c r="AK39" t="s"/>
+      <c r="AL39" t="s"/>
+      <c r="AM39" t="s"/>
+      <c r="AN39" t="s"/>
+      <c r="AO39" t="s"/>
+      <c r="AP39" t="s"/>
+      <c r="AQ39" t="s"/>
+      <c r="AR39" t="s"/>
+      <c r="AS39" t="s"/>
+      <c r="AT39" t="s"/>
+      <c r="AU39" t="s"/>
+      <c r="AV39" t="s"/>
+      <c r="AW39" t="s"/>
+      <c r="AX39" t="s"/>
+      <c r="AY39" t="s"/>
+      <c r="AZ39" t="s"/>
+      <c r="BA39" t="s"/>
+      <c r="BB39" t="s"/>
+      <c r="BC39" t="s"/>
+      <c r="BD39" t="s"/>
+      <c r="BE39" t="s"/>
+      <c r="BF39" t="s"/>
+      <c r="BG39" t="s"/>
+      <c r="BH39" t="s"/>
+      <c r="BI39" t="s"/>
+      <c r="BJ39" t="s"/>
+      <c r="BK39" t="s"/>
+      <c r="BL39" t="s"/>
+      <c r="BM39" t="s"/>
+      <c r="BN39" t="s"/>
+      <c r="BO39" t="s"/>
+      <c r="BP39" t="s"/>
+      <c r="BQ39" t="s"/>
+      <c r="BR39" t="s"/>
+      <c r="BS39" t="s"/>
+      <c r="BT39" t="s"/>
+      <c r="BU39" t="s"/>
+      <c r="BV39" t="s"/>
+      <c r="BW39" t="s"/>
+      <c r="BX39" t="s"/>
+      <c r="BY39" t="s"/>
+      <c r="BZ39" t="s"/>
+      <c r="CA39" t="s"/>
+      <c r="CB39" t="s"/>
+      <c r="CC39" t="s"/>
+      <c r="CD39" t="s"/>
+      <c r="CE39" t="s"/>
+      <c r="CF39" t="s"/>
+      <c r="CG39" t="s"/>
+      <c r="CH39" t="s"/>
+      <c r="CI39" t="s"/>
+      <c r="CJ39" t="s"/>
+      <c r="CK39" t="s"/>
+      <c r="CL39" t="s"/>
+      <c r="CM39" t="s"/>
+      <c r="CN39" t="s"/>
+      <c r="CO39" t="s"/>
+      <c r="CP39" t="s"/>
+      <c r="CQ39" t="s"/>
+      <c r="CR39" t="s"/>
+      <c r="CS39" t="s"/>
+      <c r="CT39" t="s"/>
+      <c r="CU39" t="s"/>
+      <c r="CV39" t="s"/>
+    </row>
+    <row r="40" spans="1:100">
+      <c r="A40" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="C40" t="s"/>
+      <c r="D40" t="s"/>
+      <c r="E40" t="s"/>
+      <c r="F40" t="s"/>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s"/>
+      <c r="K40" t="s"/>
+      <c r="L40" t="s"/>
+      <c r="M40" t="s"/>
+      <c r="N40" t="s"/>
+      <c r="O40" t="s"/>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="s"/>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s"/>
+      <c r="Z40" t="s"/>
+      <c r="AA40" t="s"/>
+      <c r="AB40" t="s"/>
+      <c r="AC40" t="s"/>
+      <c r="AD40" t="s"/>
+      <c r="AE40" t="s"/>
+      <c r="AF40" t="s"/>
+      <c r="AG40" t="s"/>
+      <c r="AH40" t="s"/>
+      <c r="AI40" t="s"/>
+      <c r="AJ40" t="s"/>
+      <c r="AK40" t="s"/>
+      <c r="AL40" t="s"/>
+      <c r="AM40" t="s"/>
+      <c r="AN40" t="s"/>
+      <c r="AO40" t="s"/>
+      <c r="AP40" t="s"/>
+      <c r="AQ40" t="s"/>
+      <c r="AR40" t="s"/>
+      <c r="AS40" t="s"/>
+      <c r="AT40" t="s"/>
+      <c r="AU40" t="s"/>
+      <c r="AV40" t="s"/>
+      <c r="AW40" t="s"/>
+      <c r="AX40" t="s"/>
+      <c r="AY40" t="s"/>
+      <c r="AZ40" t="s"/>
+      <c r="BA40" t="s"/>
+      <c r="BB40" t="s"/>
+      <c r="BC40" t="s"/>
+      <c r="BD40" t="s"/>
+      <c r="BE40" t="s"/>
+      <c r="BF40" t="s"/>
+      <c r="BG40" t="s"/>
+      <c r="BH40" t="s"/>
+      <c r="BI40" t="s"/>
+      <c r="BJ40" t="s"/>
+      <c r="BK40" t="s"/>
+      <c r="BL40" t="s"/>
+      <c r="BM40" t="s"/>
+      <c r="BN40" t="s"/>
+      <c r="BO40" t="s"/>
+      <c r="BP40" t="s"/>
+      <c r="BQ40" t="s"/>
+      <c r="BR40" t="s"/>
+      <c r="BS40" t="s"/>
+      <c r="BT40" t="s"/>
+      <c r="BU40" t="s"/>
+      <c r="BV40" t="s"/>
+      <c r="BW40" t="s"/>
+      <c r="BX40" t="s"/>
+      <c r="BY40" t="s"/>
+      <c r="BZ40" t="s"/>
+      <c r="CA40" t="s"/>
+      <c r="CB40" t="s"/>
+      <c r="CC40" t="s"/>
+      <c r="CD40" t="s"/>
+      <c r="CE40" t="s"/>
+      <c r="CF40" t="s"/>
+      <c r="CG40" t="s"/>
+      <c r="CH40" t="s"/>
+      <c r="CI40" t="s"/>
+      <c r="CJ40" t="s"/>
+      <c r="CK40" t="s"/>
+      <c r="CL40" t="s"/>
+      <c r="CM40" t="s"/>
+      <c r="CN40" t="s"/>
+      <c r="CO40" t="s"/>
+      <c r="CP40" t="s"/>
+      <c r="CQ40" t="s"/>
+      <c r="CR40" t="s"/>
+      <c r="CS40" t="s"/>
+      <c r="CT40" t="s"/>
+      <c r="CU40" t="s"/>
+      <c r="CV40" t="s"/>
+    </row>
+    <row r="41" spans="1:100">
+      <c r="A41" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B41" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="C41" t="s"/>
+      <c r="D41" t="s"/>
+      <c r="E41" t="s"/>
+      <c r="F41" t="s"/>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s"/>
+      <c r="K41" t="s"/>
+      <c r="L41" t="s"/>
+      <c r="M41" t="s"/>
+      <c r="N41" t="s"/>
+      <c r="O41" t="s"/>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="s"/>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s"/>
+      <c r="Z41" t="s"/>
+      <c r="AA41" t="s"/>
+      <c r="AB41" t="s"/>
+      <c r="AC41" t="s"/>
+      <c r="AD41" t="s"/>
+      <c r="AE41" t="s"/>
+      <c r="AF41" t="s"/>
+      <c r="AG41" t="s"/>
+      <c r="AH41" t="s"/>
+      <c r="AI41" t="s"/>
+      <c r="AJ41" t="s"/>
+      <c r="AK41" t="s"/>
+      <c r="AL41" t="s"/>
+      <c r="AM41" t="s"/>
+      <c r="AN41" t="s"/>
+      <c r="AO41" t="s"/>
+      <c r="AP41" t="s"/>
+      <c r="AQ41" t="s"/>
+      <c r="AR41" t="s"/>
+      <c r="AS41" t="s"/>
+      <c r="AT41" t="s"/>
+      <c r="AU41" t="s"/>
+      <c r="AV41" t="s"/>
+      <c r="AW41" t="s"/>
+      <c r="AX41" t="s"/>
+      <c r="AY41" t="s"/>
+      <c r="AZ41" t="s"/>
+      <c r="BA41" t="s"/>
+      <c r="BB41" t="s"/>
+      <c r="BC41" t="s"/>
+      <c r="BD41" t="s"/>
+      <c r="BE41" t="s"/>
+      <c r="BF41" t="s"/>
+      <c r="BG41" t="s"/>
+      <c r="BH41" t="s"/>
+      <c r="BI41" t="s"/>
+      <c r="BJ41" t="s"/>
+      <c r="BK41" t="s"/>
+      <c r="BL41" t="s"/>
+      <c r="BM41" t="s"/>
+      <c r="BN41" t="s"/>
+      <c r="BO41" t="s"/>
+      <c r="BP41" t="s"/>
+      <c r="BQ41" t="s"/>
+      <c r="BR41" t="s"/>
+      <c r="BS41" t="s"/>
+      <c r="BT41" t="s"/>
+      <c r="BU41" t="s"/>
+      <c r="BV41" t="s"/>
+      <c r="BW41" t="s"/>
+      <c r="BX41" t="s"/>
+      <c r="BY41" t="s"/>
+      <c r="BZ41" t="s"/>
+      <c r="CA41" t="s"/>
+      <c r="CB41" t="s"/>
+      <c r="CC41" t="s"/>
+      <c r="CD41" t="s"/>
+      <c r="CE41" t="s"/>
+      <c r="CF41" t="s"/>
+      <c r="CG41" t="s"/>
+      <c r="CH41" t="s"/>
+      <c r="CI41" t="s"/>
+      <c r="CJ41" t="s"/>
+      <c r="CK41" t="s"/>
+      <c r="CL41" t="s"/>
+      <c r="CM41" t="s"/>
+      <c r="CN41" t="s"/>
+      <c r="CO41" t="s"/>
+      <c r="CP41" t="s"/>
+      <c r="CQ41" t="s"/>
+      <c r="CR41" t="s"/>
+      <c r="CS41" t="s"/>
+      <c r="CT41" t="s"/>
+      <c r="CU41" t="s"/>
+      <c r="CV41" t="s"/>
+    </row>
+    <row r="42" spans="1:100">
+      <c r="A42" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B42" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="C42" t="s"/>
+      <c r="D42" t="s"/>
+      <c r="E42" t="s"/>
+      <c r="F42" t="s"/>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s"/>
+      <c r="K42" t="s"/>
+      <c r="L42" t="s"/>
+      <c r="M42" t="s"/>
+      <c r="N42" t="s"/>
+      <c r="O42" t="s"/>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="s"/>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s"/>
+      <c r="Z42" t="s"/>
+      <c r="AA42" t="s"/>
+      <c r="AB42" t="s"/>
+      <c r="AC42" t="s"/>
+      <c r="AD42" t="s"/>
+      <c r="AE42" t="s"/>
+      <c r="AF42" t="s"/>
+      <c r="AG42" t="s"/>
+      <c r="AH42" t="s"/>
+      <c r="AI42" t="s"/>
+      <c r="AJ42" t="s"/>
+      <c r="AK42" t="s"/>
+      <c r="AL42" t="s"/>
+      <c r="AM42" t="s"/>
+      <c r="AN42" t="s"/>
+      <c r="AO42" t="s"/>
+      <c r="AP42" t="s"/>
+      <c r="AQ42" t="s"/>
+      <c r="AR42" t="s"/>
+      <c r="AS42" t="s"/>
+      <c r="AT42" t="s"/>
+      <c r="AU42" t="s"/>
+      <c r="AV42" t="s"/>
+      <c r="AW42" t="s"/>
+      <c r="AX42" t="s"/>
+      <c r="AY42" t="s"/>
+      <c r="AZ42" t="s"/>
+      <c r="BA42" t="s"/>
+      <c r="BB42" t="s"/>
+      <c r="BC42" t="s"/>
+      <c r="BD42" t="s"/>
+      <c r="BE42" t="s"/>
+      <c r="BF42" t="s"/>
+      <c r="BG42" t="s"/>
+      <c r="BH42" t="s"/>
+      <c r="BI42" t="s"/>
+      <c r="BJ42" t="s"/>
+      <c r="BK42" t="s"/>
+      <c r="BL42" t="s"/>
+      <c r="BM42" t="s"/>
+      <c r="BN42" t="s"/>
+      <c r="BO42" t="s"/>
+      <c r="BP42" t="s"/>
+      <c r="BQ42" t="s"/>
+      <c r="BR42" t="s"/>
+      <c r="BS42" t="s"/>
+      <c r="BT42" t="s"/>
+      <c r="BU42" t="s"/>
+      <c r="BV42" t="s"/>
+      <c r="BW42" t="s"/>
+      <c r="BX42" t="s"/>
+      <c r="BY42" t="s"/>
+      <c r="BZ42" t="s"/>
+      <c r="CA42" t="s"/>
+      <c r="CB42" t="s"/>
+      <c r="CC42" t="s"/>
+      <c r="CD42" t="s"/>
+      <c r="CE42" t="s"/>
+      <c r="CF42" t="s"/>
+      <c r="CG42" t="s"/>
+      <c r="CH42" t="s"/>
+      <c r="CI42" t="s"/>
+      <c r="CJ42" t="s"/>
+      <c r="CK42" t="s"/>
+      <c r="CL42" t="s"/>
+      <c r="CM42" t="s"/>
+      <c r="CN42" t="s"/>
+      <c r="CO42" t="s"/>
+      <c r="CP42" t="s"/>
+      <c r="CQ42" t="s"/>
+      <c r="CR42" t="s"/>
+      <c r="CS42" t="s"/>
+      <c r="CT42" t="s"/>
+      <c r="CU42" t="s"/>
+      <c r="CV42" t="s"/>
+    </row>
+    <row r="43" spans="1:100">
+      <c r="A43" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B43" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="C43" t="s"/>
+      <c r="D43" t="s"/>
+      <c r="E43" t="s"/>
+      <c r="F43" t="s"/>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s"/>
+      <c r="K43" t="s"/>
+      <c r="L43" t="s"/>
+      <c r="M43" t="s"/>
+      <c r="N43" t="s"/>
+      <c r="O43" t="s"/>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="s"/>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s"/>
+      <c r="Z43" t="s"/>
+      <c r="AA43" t="s"/>
+      <c r="AB43" t="s"/>
+      <c r="AC43" t="s"/>
+      <c r="AD43" t="s"/>
+      <c r="AE43" t="s"/>
+      <c r="AF43" t="s"/>
+      <c r="AG43" t="s"/>
+      <c r="AH43" t="s"/>
+      <c r="AI43" t="s"/>
+      <c r="AJ43" t="s"/>
+      <c r="AK43" t="s"/>
+      <c r="AL43" t="s"/>
+      <c r="AM43" t="s"/>
+      <c r="AN43" t="s"/>
+      <c r="AO43" t="s"/>
+      <c r="AP43" t="s"/>
+      <c r="AQ43" t="s"/>
+      <c r="AR43" t="s"/>
+      <c r="AS43" t="s"/>
+      <c r="AT43" t="s"/>
+      <c r="AU43" t="s"/>
+      <c r="AV43" t="s"/>
+      <c r="AW43" t="s"/>
+      <c r="AX43" t="s"/>
+      <c r="AY43" t="s"/>
+      <c r="AZ43" t="s"/>
+      <c r="BA43" t="s"/>
+      <c r="BB43" t="s"/>
+      <c r="BC43" t="s"/>
+      <c r="BD43" t="s"/>
+      <c r="BE43" t="s"/>
+      <c r="BF43" t="s"/>
+      <c r="BG43" t="s"/>
+      <c r="BH43" t="s"/>
+      <c r="BI43" t="s"/>
+      <c r="BJ43" t="s"/>
+      <c r="BK43" t="s"/>
+      <c r="BL43" t="s"/>
+      <c r="BM43" t="s"/>
+      <c r="BN43" t="s"/>
+      <c r="BO43" t="s"/>
+      <c r="BP43" t="s"/>
+      <c r="BQ43" t="s"/>
+      <c r="BR43" t="s"/>
+      <c r="BS43" t="s"/>
+      <c r="BT43" t="s"/>
+      <c r="BU43" t="s"/>
+      <c r="BV43" t="s"/>
+      <c r="BW43" t="s"/>
+      <c r="BX43" t="s"/>
+      <c r="BY43" t="s"/>
+      <c r="BZ43" t="s"/>
+      <c r="CA43" t="s"/>
+      <c r="CB43" t="s"/>
+      <c r="CC43" t="s"/>
+      <c r="CD43" t="s"/>
+      <c r="CE43" t="s"/>
+      <c r="CF43" t="s"/>
+      <c r="CG43" t="s"/>
+      <c r="CH43" t="s"/>
+      <c r="CI43" t="s"/>
+      <c r="CJ43" t="s"/>
+      <c r="CK43" t="s"/>
+      <c r="CL43" t="s"/>
+      <c r="CM43" t="s"/>
+      <c r="CN43" t="s"/>
+      <c r="CO43" t="s"/>
+      <c r="CP43" t="s"/>
+      <c r="CQ43" t="s"/>
+      <c r="CR43" t="s"/>
+      <c r="CS43" t="s"/>
+      <c r="CT43" t="s"/>
+      <c r="CU43" t="s"/>
+      <c r="CV43" t="s"/>
+    </row>
+    <row r="44" spans="1:100">
+      <c r="A44" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B44" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="C44" t="s"/>
+      <c r="D44" t="s"/>
+      <c r="E44" t="s"/>
+      <c r="F44" t="s"/>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s"/>
+      <c r="K44" t="s"/>
+      <c r="L44" t="s"/>
+      <c r="M44" t="s"/>
+      <c r="N44" t="s"/>
+      <c r="O44" t="s"/>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="s"/>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s"/>
+      <c r="Z44" t="s"/>
+      <c r="AA44" t="s"/>
+      <c r="AB44" t="s"/>
+      <c r="AC44" t="s"/>
+      <c r="AD44" t="s"/>
+      <c r="AE44" t="s"/>
+      <c r="AF44" t="s"/>
+      <c r="AG44" t="s"/>
+      <c r="AH44" t="s"/>
+      <c r="AI44" t="s"/>
+      <c r="AJ44" t="s"/>
+      <c r="AK44" t="s"/>
+      <c r="AL44" t="s"/>
+      <c r="AM44" t="s"/>
+      <c r="AN44" t="s"/>
+      <c r="AO44" t="s"/>
+      <c r="AP44" t="s"/>
+      <c r="AQ44" t="s"/>
+      <c r="AR44" t="s"/>
+      <c r="AS44" t="s"/>
+      <c r="AT44" t="s"/>
+      <c r="AU44" t="s"/>
+      <c r="AV44" t="s"/>
+      <c r="AW44" t="s"/>
+      <c r="AX44" t="s"/>
+      <c r="AY44" t="s"/>
+      <c r="AZ44" t="s"/>
+      <c r="BA44" t="s"/>
+      <c r="BB44" t="s"/>
+      <c r="BC44" t="s"/>
+      <c r="BD44" t="s"/>
+      <c r="BE44" t="s"/>
+      <c r="BF44" t="s"/>
+      <c r="BG44" t="s"/>
+      <c r="BH44" t="s"/>
+      <c r="BI44" t="s"/>
+      <c r="BJ44" t="s"/>
+      <c r="BK44" t="s"/>
+      <c r="BL44" t="s"/>
+      <c r="BM44" t="s"/>
+      <c r="BN44" t="s"/>
+      <c r="BO44" t="s"/>
+      <c r="BP44" t="s"/>
+      <c r="BQ44" t="s"/>
+      <c r="BR44" t="s"/>
+      <c r="BS44" t="s"/>
+      <c r="BT44" t="s"/>
+      <c r="BU44" t="s"/>
+      <c r="BV44" t="s"/>
+      <c r="BW44" t="s"/>
+      <c r="BX44" t="s"/>
+      <c r="BY44" t="s"/>
+      <c r="BZ44" t="s"/>
+      <c r="CA44" t="s"/>
+      <c r="CB44" t="s"/>
+      <c r="CC44" t="s"/>
+      <c r="CD44" t="s"/>
+      <c r="CE44" t="s"/>
+      <c r="CF44" t="s"/>
+      <c r="CG44" t="s"/>
+      <c r="CH44" t="s"/>
+      <c r="CI44" t="s"/>
+      <c r="CJ44" t="s"/>
+      <c r="CK44" t="s"/>
+      <c r="CL44" t="s"/>
+      <c r="CM44" t="s"/>
+      <c r="CN44" t="s"/>
+      <c r="CO44" t="s"/>
+      <c r="CP44" t="s"/>
+      <c r="CQ44" t="s"/>
+      <c r="CR44" t="s"/>
+      <c r="CS44" t="s"/>
+      <c r="CT44" t="s"/>
+      <c r="CU44" t="s"/>
+      <c r="CV44" t="s"/>
+    </row>
+    <row r="45" spans="1:100">
+      <c r="A45" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B45" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="C45" t="s"/>
+      <c r="D45" t="s"/>
+      <c r="E45" t="s"/>
+      <c r="F45" t="s"/>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s"/>
+      <c r="K45" t="s"/>
+      <c r="L45" t="s"/>
+      <c r="M45" t="s"/>
+      <c r="N45" t="s"/>
+      <c r="O45" t="s"/>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="s"/>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s"/>
+      <c r="Z45" t="s"/>
+      <c r="AA45" t="s"/>
+      <c r="AB45" t="s"/>
+      <c r="AC45" t="s"/>
+      <c r="AD45" t="s"/>
+      <c r="AE45" t="s"/>
+      <c r="AF45" t="s"/>
+      <c r="AG45" t="s"/>
+      <c r="AH45" t="s"/>
+      <c r="AI45" t="s"/>
+      <c r="AJ45" t="s"/>
+      <c r="AK45" t="s"/>
+      <c r="AL45" t="s"/>
+      <c r="AM45" t="s"/>
+      <c r="AN45" t="s"/>
+      <c r="AO45" t="s"/>
+      <c r="AP45" t="s"/>
+      <c r="AQ45" t="s"/>
+      <c r="AR45" t="s"/>
+      <c r="AS45" t="s"/>
+      <c r="AT45" t="s"/>
+      <c r="AU45" t="s"/>
+      <c r="AV45" t="s"/>
+      <c r="AW45" t="s"/>
+      <c r="AX45" t="s"/>
+      <c r="AY45" t="s"/>
+      <c r="AZ45" t="s"/>
+      <c r="BA45" t="s"/>
+      <c r="BB45" t="s"/>
+      <c r="BC45" t="s"/>
+      <c r="BD45" t="s"/>
+      <c r="BE45" t="s"/>
+      <c r="BF45" t="s"/>
+      <c r="BG45" t="s"/>
+      <c r="BH45" t="s"/>
+      <c r="BI45" t="s"/>
+      <c r="BJ45" t="s"/>
+      <c r="BK45" t="s"/>
+      <c r="BL45" t="s"/>
+      <c r="BM45" t="s"/>
+      <c r="BN45" t="s"/>
+      <c r="BO45" t="s"/>
+      <c r="BP45" t="s"/>
+      <c r="BQ45" t="s"/>
+      <c r="BR45" t="s"/>
+      <c r="BS45" t="s"/>
+      <c r="BT45" t="s"/>
+      <c r="BU45" t="s"/>
+      <c r="BV45" t="s"/>
+      <c r="BW45" t="s"/>
+      <c r="BX45" t="s"/>
+      <c r="BY45" t="s"/>
+      <c r="BZ45" t="s"/>
+      <c r="CA45" t="s"/>
+      <c r="CB45" t="s"/>
+      <c r="CC45" t="s"/>
+      <c r="CD45" t="s"/>
+      <c r="CE45" t="s"/>
+      <c r="CF45" t="s"/>
+      <c r="CG45" t="s"/>
+      <c r="CH45" t="s"/>
+      <c r="CI45" t="s"/>
+      <c r="CJ45" t="s"/>
+      <c r="CK45" t="s"/>
+      <c r="CL45" t="s"/>
+      <c r="CM45" t="s"/>
+      <c r="CN45" t="s"/>
+      <c r="CO45" t="s"/>
+      <c r="CP45" t="s"/>
+      <c r="CQ45" t="s"/>
+      <c r="CR45" t="s"/>
+      <c r="CS45" t="s"/>
+      <c r="CT45" t="s"/>
+      <c r="CU45" t="s"/>
+      <c r="CV45" t="s"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
